--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251284</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>297.0909090909091</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>16340</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,78 +576,76 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251706</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>50.79365079365079</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3200</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,75 +712,73 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251391</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>91.640625</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 11:01:39</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5865</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -795,21 +791,19 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -817,49 +811,49 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251395</v>
+        <v>251742</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>8226</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -872,7 +866,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -890,53 +884,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251371</v>
+        <v>251840</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,15 +943,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N7" t="n">
+        <v>39758</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +957,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39666</v>
+        <v>39758</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251453</v>
+        <v>251229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>78.125</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:58:45</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>5000</v>
+        <v>18739</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,18 +1016,18 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>39742 (non in estrazione)</t>
+          <t>39723 (esterno)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1044,57 +1036,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39742</v>
+        <v>39723</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-9.553385416666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251225</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:16:52</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 13:37:52</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1103,17 +1095,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,57 +1113,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.5925130208333333</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251227</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:13:13</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:32:13</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1180,17 +1172,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1198,57 +1190,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.416059027777778</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251782</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 09:59:07</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:31:07</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>12073</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1249,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,57 +1267,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.514301215277778</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>251164</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:20:35</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1326,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,57 +1344,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.5261067708333333</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251227</v>
+        <v>251456</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:37:35</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,14 +1403,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
         <v>39746</v>
@@ -1433,53 +1425,53 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-2.5365234375</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251421</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>81.9375</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:35</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:09:35</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>5244</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,43 +1480,39 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39762 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N14" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39762</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-08 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.6052300347222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251782</v>
+        <v>251455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1520,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>188.640625</v>
+        <v>82.765625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:31:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:46:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12073</v>
+        <v>5297</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1567,17 +1555,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,23 +1573,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.4133138020833333</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1609,33 +1597,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>691.59375</v>
+        <v>91.640625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:55:10</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:14:10</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 13:45:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>5865</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,73 +1632,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251050</v>
+        <v>251395</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,17 +1709,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1737,53 +1727,53 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251054</v>
+        <v>251371</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1796,17 +1786,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39747</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1814,57 +1806,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251081</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>42.42253521126761</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3012</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1873,19 +1865,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,57 +1883,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251547</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>184.9154929577465</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13129</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1978,49 +1968,49 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250759</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>118.2816901408451</v>
+        <v>109.46875</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8398</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,17 +2019,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2047,57 +2037,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251229</v>
+        <v>251477</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>263.9295774647887</v>
+        <v>468.734375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:41:11</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18739</v>
+        <v>29999</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2106,19 +2096,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39760</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2126,86 +2114,90 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39723</v>
+        <v>39760</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251416</v>
+        <v>251706</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>158.056338028169</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:05:07</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:07</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-09 10:28:07</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-09 13:06:10</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>11222</v>
+        <v>3200</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39764</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
@@ -2217,41 +2209,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251742</v>
+        <v>251050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D24" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2260,17 +2252,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2278,57 +2270,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251840</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2337,17 +2329,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2355,57 +2347,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251456</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>147.5245901639344</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:13:31</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 14:41:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8999</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2414,17 +2406,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="n">
-        <v>39746</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2432,34 +2426,34 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.611839708564815</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2468,21 +2462,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2491,23 +2485,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2515,243 +2511,10 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>251477</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>17</v>
-      </c>
-      <c r="D28" t="n">
-        <v>422.5211267605634</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:17:00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:17:00</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:19:31</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>29999</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>3</v>
-      </c>
-      <c r="M28" t="n">
-        <v>76</v>
-      </c>
-      <c r="N28" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>39760</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>2025-04-28 00:00:00</t>
-        </is>
-      </c>
-      <c r="R28" s="1" t="n">
-        <v>-2.471889671365741</v>
-      </c>
-      <c r="S28" s="1" t="n">
-        <v>-2.471889671365741</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>251268</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>47</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R9</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>76</v>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>39666 (non in estrazione)</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>2025-04-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R29" s="1" t="n">
-        <v>-24.32430555555555</v>
-      </c>
-      <c r="S29" s="1" t="n">
-        <v>-24.32430555555555</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>251164</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>47</v>
-      </c>
-      <c r="D30" t="n">
-        <v>204.0816326530612</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:47:00</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:34:00</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2025-05-08 08:34:00</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:58:04</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>6</v>
-      </c>
-      <c r="M30" t="n">
-        <v>70</v>
-      </c>
-      <c r="N30" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P30" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>2025-04-22 00:00:00</t>
-        </is>
-      </c>
-      <c r="R30" s="1" t="n">
-        <v>-1.498667800451389</v>
-      </c>
-      <c r="S30" s="1" t="n">
-        <v>-1.498667800451389</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,75 +558,73 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +633,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +651,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,73 +710,75 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>158.056338028169</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -787,27 +787,31 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -819,41 +823,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251742</v>
+        <v>251225</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -862,17 +866,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -880,57 +884,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5131944444444444</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251840</v>
+        <v>251227</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -939,17 +943,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -957,57 +961,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-2.523611111111111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251229</v>
+        <v>251782</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>307.1967213114754</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18739</v>
+        <v>12073</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1016,19 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39754</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1036,53 +1038,53 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39723</v>
+        <v>39754</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251225</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1095,14 +1097,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
         <v>39747</v>
@@ -1117,49 +1119,49 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.442361111111111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251227</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1172,17 +1174,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1190,57 +1192,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.466666666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251782</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>170.0422535211268</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12073</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1249,17 +1251,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1267,57 +1271,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39754</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-16.58293231612268</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251164</v>
+        <v>251284</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>55</v>
+        <v>40.5</v>
       </c>
       <c r="D12" t="n">
-        <v>204.0816326530612</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>10000</v>
+        <v>16340</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1326,17 +1330,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1344,57 +1348,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.526104797974537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251456</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n">
-        <v>183.6530612244898</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8999</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1407,13 +1411,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1421,57 +1425,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.443691314548611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1480,73 +1484,75 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251455</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>82.765625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5297</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1555,75 +1561,73 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251391</v>
+        <v>251416</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>91.640625</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 11:01:39</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5865</v>
+        <v>11222</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,21 +1640,19 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1658,15 +1660,15 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251395</v>
+        <v>251455</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1674,33 +1676,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D17" t="n">
-        <v>35.34375</v>
+        <v>82.765625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1713,7 +1715,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
@@ -1731,19 +1733,19 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251371</v>
+        <v>251391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1751,33 +1753,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1790,15 +1792,13 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1806,23 +1806,23 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.4377821180555556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1830,29 +1830,29 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
         <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1887,19 +1887,19 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251371</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1910,30 +1910,30 @@
         <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1951,8 +1951,10 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1960,23 +1962,23 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-13.48732638888889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1984,33 +1986,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>109.46875</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2019,14 +2021,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -2041,19 +2043,19 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5250651041666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251477</v>
+        <v>251548</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2064,30 +2066,30 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>468.734375</v>
+        <v>206.90625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>29999</v>
+        <v>13242</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2096,17 +2098,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2114,78 +2116,76 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251706</v>
+        <v>250923</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
-        <v>50.79365079365079</v>
+        <v>109.46875</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3200</v>
+        <v>7006</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2193,57 +2193,57 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251050</v>
+        <v>251477</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2252,17 +2252,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2270,76 +2270,78 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.452224392361111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251054</v>
+        <v>251706</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2347,57 +2349,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39764</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251081</v>
+        <v>251164</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>42.42253521126761</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3012</v>
+        <v>10000</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2406,19 +2408,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N26" t="n">
+        <v>39749</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,57 +2426,57 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251456</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>50</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>8999</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,17 +2485,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,18 +2503,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-3.300510204085648</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,39 +558,44 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251742</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -598,33 +603,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>134.8524590163935</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8226</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -637,13 +642,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -651,23 +656,26 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.4885587431712963</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -678,30 +686,30 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -710,17 +718,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39758</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -728,57 +738,60 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>82.765625</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -787,19 +800,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N5" t="n">
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -807,57 +818,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251225</v>
+        <v>251391</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,17 +880,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -884,57 +898,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4377821180555556</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251227</v>
+        <v>251395</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -943,17 +960,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -961,57 +978,60 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.4741319444444445</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251782</v>
+        <v>251371</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,17 +1040,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1060,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39754</v>
+        <v>39666</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-13.48732638888889</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251396</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1122,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1140,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.5250651041666666</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251548</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,17 +1202,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1192,57 +1220,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.348611111111111</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>250923</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>109.46875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>7006</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,19 +1282,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,57 +1300,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251284</v>
+        <v>251477</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>297.0909090909091</v>
+        <v>468.734375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>16340</v>
+        <v>29999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1330,17 +1362,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1348,57 +1380,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-2.452224392361111</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251416</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>175.34375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>11222</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,71 +1446,72 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251050</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,14 +1520,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
         <v>39747</v>
@@ -1506,53 +1542,56 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251054</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,73 +1600,78 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251416</v>
+        <v>251081</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D16" t="n">
-        <v>158.056338028169</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11222</v>
+        <v>3012</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,23 +1680,27 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
-      <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39750</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -1660,49 +1708,52 @@
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
-        <v>82.765625</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,75 +1762,76 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R17" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-0.3623372395833334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D18" t="n">
-        <v>91.640625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1788,17 +1840,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1806,76 +1858,81 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251395</v>
+        <v>251706</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>3200</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1883,57 +1940,60 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251371</v>
+        <v>251547</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1951,10 +2011,8 @@
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N20" t="n">
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +2020,60 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.443691314548611</v>
+      </c>
+      <c r="T20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251396</v>
+        <v>250759</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>8398</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2082,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,57 +2100,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5466647104861111</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251548</v>
+        <v>250894</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>206.90625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13242</v>
+        <v>44262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2098,75 +2162,76 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>76</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>4</v>
-      </c>
-      <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P22" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-1.348611111111111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250923</v>
+        <v>251164</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D23" t="n">
-        <v>109.46875</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>7006</v>
+        <v>10000</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2175,14 +2240,14 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
         <v>39749</v>
@@ -2197,53 +2262,56 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251477</v>
+        <v>251456</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D24" t="n">
-        <v>468.734375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>29999</v>
+        <v>8999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2252,17 +2320,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2270,78 +2338,79 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251706</v>
+        <v>251225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>50.79365079365079</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2349,57 +2418,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251164</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,17 +2480,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,57 +2498,60 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251456</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>183.6530612244898</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8999</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,17 +2560,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2503,18 +2578,21 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.3201682316087963</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -757,41 +757,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251455</v>
+        <v>251164</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D5" t="n">
-        <v>82.765625</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>5297</v>
+        <v>10000</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
@@ -822,56 +822,56 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251391</v>
+        <v>251456</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>91.640625</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5865</v>
+        <v>8999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -884,13 +884,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -898,60 +898,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251395</v>
+        <v>251050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D7" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,17 +960,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -978,56 +978,56 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251371</v>
+        <v>251054</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -1040,19 +1040,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1060,60 +1058,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251396</v>
+        <v>251081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>35.34375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2262</v>
+        <v>3012</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1122,17 +1120,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39749</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1140,60 +1140,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251548</v>
+        <v>251225</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1202,17 +1202,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1220,60 +1220,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>250923</v>
+        <v>251227</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1300,60 +1300,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251477</v>
+        <v>251782</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
-        <v>468.734375</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>29999</v>
+        <v>12073</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39760</v>
+        <v>39754</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1380,18 +1380,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39760</v>
+        <v>39754</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T12" t="n">
         <v>1</v>
@@ -1399,41 +1399,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251416</v>
+        <v>251284</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>40.5</v>
       </c>
       <c r="D13" t="n">
-        <v>175.34375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:32</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11222</v>
+        <v>16340</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1442,53 +1442,55 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251050</v>
+        <v>251651</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1497,21 +1499,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1520,78 +1522,76 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251054</v>
+        <v>251547</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1600,17 +1600,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1618,60 +1618,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251081</v>
+        <v>250759</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>42.42253521126761</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3012</v>
+        <v>8398</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1680,19 +1680,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39747</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1700,60 +1698,60 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251651</v>
+        <v>250894</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>767.7049180327868</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>46830</v>
+        <v>44262</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1782,7 +1780,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
@@ -1797,142 +1795,142 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
         <v>7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>70</v>
-      </c>
-      <c r="N18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R18" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251706</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D19" t="n">
-        <v>50.79365079365079</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3200</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1940,18 +1938,18 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1959,41 +1957,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251547</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>184.9154929577465</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13129</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2006,7 +2004,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -2024,14 +2022,14 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2039,41 +2037,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250759</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>118.2816901408451</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>8398</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2082,17 +2080,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2100,60 +2098,60 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250894</v>
+        <v>251371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2162,76 +2160,80 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251164</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>204.0816326530612</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>10000</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2262,56 +2264,56 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251456</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>183.6530612244898</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8999</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2324,13 +2326,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2338,60 +2340,60 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251225</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2404,13 +2406,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,60 +2420,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,17 +2482,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2498,18 +2500,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2517,41 +2519,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251782</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>170.0422535211268</v>
+        <v>175.34375</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12073</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,39 +2562,37 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251547</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>13129</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>250759</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>8398</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,17 +638,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,18 +656,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -675,41 +675,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>250894</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>44262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,31 +718,27 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N4" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -752,46 +748,46 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251164</v>
+        <v>251416</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>204.0816326530612</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-12 11:01:39</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>10000</v>
+        <v>11222</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -804,74 +800,72 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251456</v>
+        <v>251742</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>183.6530612244898</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8999</v>
+        <v>8226</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -884,13 +878,13 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -898,60 +892,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251050</v>
+        <v>251840</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,17 +954,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -978,60 +972,60 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251054</v>
+        <v>251229</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1040,17 +1034,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39747</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1058,60 +1054,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251081</v>
+        <v>251164</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D9" t="n">
-        <v>42.42253521126761</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3012</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1120,19 +1116,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1140,60 +1134,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251225</v>
+        <v>251456</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1202,17 +1196,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1220,18 +1214,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1239,37 +1233,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251227</v>
+        <v>251050</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1282,17 +1276,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1300,60 +1294,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1362,17 +1356,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1380,60 +1374,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251284</v>
+        <v>251081</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>40.5</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>297.0909090909091</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>16340</v>
+        <v>3012</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1442,17 +1436,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39747</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1460,21 +1456,21 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1557,41 +1553,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251547</v>
+        <v>251225</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1600,17 +1596,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1618,60 +1614,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250759</v>
+        <v>251227</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1680,7 +1676,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1690,7 +1686,7 @@
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1698,18 +1694,18 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
@@ -1717,41 +1713,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>250894</v>
+        <v>251782</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>623.4084507042254</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>44262</v>
+        <v>12073</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1760,37 +1756,39 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2519,41 +2517,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>175.34375</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 11:23:12</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 14:18:32</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2562,37 +2560,39 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,18 +515,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251742</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,21 +535,21 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>8226</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,41 +595,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251840</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>5714</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,17 +638,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,18 +656,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
@@ -675,41 +675,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,27 +718,31 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
-      </c>
-      <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
@@ -748,12 +752,12 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251547</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -761,33 +765,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>158.056338028169</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>13129</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -800,72 +804,74 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251742</v>
+        <v>250759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>134.8524590163935</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8226</v>
+        <v>8398</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -874,17 +880,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -892,60 +898,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251840</v>
+        <v>250894</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>93.67213114754098</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5714</v>
+        <v>44262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -954,78 +960,76 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39758</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39758</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251229</v>
+        <v>251416</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>307.1967213114754</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-12 08:23:36</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-12 11:01:39</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18739</v>
+        <v>11222</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,31 +1038,27 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39723</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
@@ -1068,46 +1068,46 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251164</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
-        <v>204.0816326530612</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1134,60 +1134,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251456</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1196,17 +1196,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1214,26 +1214,26 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1241,33 +1241,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1280,13 +1280,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39747</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1294,18 +1296,18 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T11" t="n">
         <v>2</v>
@@ -1313,41 +1315,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251054</v>
+        <v>251651</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1356,78 +1358,76 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251081</v>
+        <v>251225</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1436,19 +1436,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1456,60 +1454,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>251227</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1518,42 +1516,44 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39746</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251782</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1561,33 +1561,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1596,17 +1596,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1614,18 +1614,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1633,60 +1633,62 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251227</v>
+        <v>251706</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39746</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1694,60 +1696,60 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39746</v>
+        <v>39764</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251782</v>
+        <v>251164</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0422535211268</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12073</v>
+        <v>10000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1756,17 +1758,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1774,81 +1776,79 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>251456</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>50.79365079365079</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3200</v>
+        <v>8999</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39746</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1856,21 +1856,21 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39764</v>
+        <v>39746</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251742</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>134.8524590163935</v>
+        <v>86.8360655737705</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 08:56:50</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8226</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -580,14 +580,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.372802823310185</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251840</v>
+        <v>251547</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -603,33 +603,33 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>93.67213114754098</v>
+        <v>215.2295081967213</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 08:56:50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 09:16:50</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 09:16:50</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:52:03</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5714</v>
+        <v>13129</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,26 +656,26 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.536156648449074</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251229</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -686,30 +686,30 @@
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>307.1967213114754</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-08 12:52:03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:17:03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 13:17:03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-08 14:50:44</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>18739</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,19 +718,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39758</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -738,18 +736,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39723</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.618567850636574</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -757,41 +755,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251547</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>184.9154929577465</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 14:50:44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:15:44</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:15:44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 12:22:56</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13129</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -800,17 +798,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -818,60 +818,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>251371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -880,17 +880,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -898,60 +900,60 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-15.32430555555556</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250894</v>
+        <v>251050</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>205</v>
       </c>
       <c r="D7" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,76 +962,78 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251416</v>
+        <v>251054</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
-        <v>158.056338028169</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1038,34 +1042,36 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-1.490972222222222</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -1073,7 +1079,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1081,33 +1087,33 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>125</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-09 14:34:25</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3012</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1120,13 +1126,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39747</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1134,18 +1142,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-16.60723787167824</v>
       </c>
       <c r="T9" t="n">
         <v>2</v>
@@ -1153,41 +1161,41 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251782</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>12073</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1196,17 +1204,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N10" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1214,60 +1222,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>251284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>40.5</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>16340</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1276,19 +1284,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1296,21 +1302,21 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1397,7 +1403,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1408,22 +1414,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1465,7 +1471,7 @@
         <v>-0.5131944444444444</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="T13" t="n">
         <v>1</v>
@@ -1473,41 +1479,41 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251227</v>
+        <v>251164</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:53:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:53:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:13:50</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1516,78 +1522,78 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>70</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-1.426281298900463</v>
+      </c>
+      <c r="T14" t="n">
         <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>76</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251782</v>
+        <v>250759</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>170.0422535211268</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 10:13:50</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 10:47:50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 10:47:50</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12073</v>
+        <v>8398</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1596,17 +1602,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1614,18 +1620,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-0.5320324726157407</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1633,74 +1639,70 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251706</v>
+        <v>250894</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>50.79365079365079</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:46:07</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 13:03:07</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 13:03:07</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-12 07:26:32</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3200</v>
+        <v>44262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39764</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1710,12 +1712,12 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251164</v>
+        <v>251456</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1723,10 +1725,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>204.0816326530612</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1735,21 +1737,21 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10000</v>
+        <v>8999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1776,60 +1778,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251456</v>
+        <v>251227</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1838,14 +1840,14 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
         <v>39746</v>
@@ -1860,14 +1862,14 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.315277777777778</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
@@ -1875,7 +1877,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251742</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1883,33 +1885,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>128.53125</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 10:12:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>8226</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1940,14 +1942,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.4253689236111111</v>
       </c>
       <c r="T19" t="n">
         <v>7</v>
@@ -1970,22 +1972,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-07 10:12:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 10:29:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-07 10:29:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 12:01:10</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -2027,7 +2029,7 @@
         <v>-0.4377821180555556</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-0.5008138020833334</v>
       </c>
       <c r="T20" t="n">
         <v>7</v>
@@ -2050,22 +2052,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-07 12:01:10</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:18:10</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-07 12:18:10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 12:53:30</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2107,7 +2109,7 @@
         <v>-0.4741319444444445</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.5371636284722222</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2115,7 +2117,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2123,33 +2125,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-07 12:53:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:08:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:08:30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:43:51</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2162,15 +2164,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2178,18 +2178,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.5721245659722223</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>251548</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2208,30 +2208,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-07 13:43:51</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 14:02:51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-07 14:02:51</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 09:29:45</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2262,14 +2262,14 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-1.395670572916667</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>250923</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2285,33 +2285,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>109.46875</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 09:29:45</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 10:01:45</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 10:01:45</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 11:51:14</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>7006</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2320,14 +2320,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
         <v>39749</v>
@@ -2342,22 +2342,22 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-1.493912760416667</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251477</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2365,33 +2365,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>468.734375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 11:51:14</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:10:14</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:10:14</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 11:58:58</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>29999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2400,17 +2400,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,26 +2418,26 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-2.499283854166667</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251416</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2445,33 +2445,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>175.34375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-09 11:58:58</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 12:30:58</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-09 12:30:58</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-12 07:26:18</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>11222</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,119 +2480,119 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
         <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -519,14 +519,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>86.8360655737705</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,17 +535,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:50</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -587,7 +587,7 @@
         <v>-0.3623372395833334</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>-1.372802823310185</v>
+        <v>-1.367087245694445</v>
       </c>
       <c r="T2" t="n">
         <v>7</v>
@@ -599,33 +599,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>215.2295081967213</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 08:56:50</t>
+          <t>2025-05-08 08:48:36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:16:50</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:16:50</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:03</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -667,7 +667,7 @@
         <v>-1.443691314548611</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.536156648449074</v>
+        <v>-1.505917449143519</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -675,41 +675,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251225</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:03</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:17:03</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:17:03</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:50:44</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,17 +718,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -736,18 +736,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.618567850636574</v>
+        <v>-0.5267507824768519</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -755,41 +755,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251229</v>
+        <v>250759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>307.1967213114754</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:50:44</t>
+          <t>2025-05-08 12:38:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:15:44</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 07:15:44</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 12:22:56</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>18739</v>
+        <v>8398</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,19 +798,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -818,18 +816,18 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>0</v>
+        <v>-0.6193075117361111</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -837,41 +835,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251371</v>
+        <v>250894</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-09 07:08:48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -880,80 +878,76 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>-15.32430555555556</v>
-      </c>
-      <c r="T6" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251050</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>36</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>158.056338028169</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-12 09:32:12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 10:08:12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-12 12:46:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -962,36 +956,34 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
@@ -999,41 +991,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251054</v>
+        <v>251742</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1042,17 +1034,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1060,60 +1052,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.490972222222222</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251081</v>
+        <v>251840</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>42.42253521126761</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:25</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3012</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1122,19 +1114,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39758</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1142,60 +1132,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39750</v>
+        <v>39758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-16.60723787167824</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251782</v>
+        <v>251229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>170.0422535211268</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>12073</v>
+        <v>18739</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1204,17 +1194,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1222,18 +1214,18 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39754</v>
+        <v>39723</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>1</v>
@@ -1241,18 +1233,18 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251284</v>
+        <v>251651</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
-        <v>297.0909090909091</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1261,21 +1253,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16340</v>
+        <v>46830</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1284,25 +1276,23 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1310,29 +1300,29 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251651</v>
+        <v>251371</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D12" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1341,21 +1331,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1364,72 +1354,76 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>39666</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>0</v>
+        <v>-15.32430555555556</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251225</v>
+        <v>251050</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:47:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1442,14 +1436,14 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
         <v>39747</v>
@@ -1464,56 +1458,56 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-0.3048611111111111</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251164</v>
+        <v>251054</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>140.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:00</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:50</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1522,17 +1516,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1540,60 +1534,60 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.426281298900463</v>
+        <v>-1.490972222222222</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250759</v>
+        <v>251081</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D15" t="n">
-        <v>118.2816901408451</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:13:50</t>
+          <t>2025-05-09 11:47:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:47:50</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 10:47:50</t>
+          <t>2025-05-09 13:52:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-09 14:34:25</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8398</v>
+        <v>3012</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1602,17 +1596,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39747</v>
+        <v>70</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1620,60 +1616,60 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39750</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.5320324726157407</v>
+        <v>-16.60723787167824</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251782</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>623.4084507042254</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:46:07</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:03:07</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 13:03:07</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:32</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>12073</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1682,95 +1678,99 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>0</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251456</v>
+        <v>251706</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>183.6530612244898</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>8999</v>
+        <v>3200</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39746</v>
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1778,60 +1778,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>39764</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>0</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251227</v>
+        <v>251391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>119.6938775510204</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 07:50:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1840,17 +1840,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1858,60 +1858,60 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.315277777777778</v>
+        <v>-1.4095096371875</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251742</v>
+        <v>251164</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>128.53125</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 09:49:41</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-08 10:29:41</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-08 10:29:41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 10:12:31</t>
+          <t>2025-05-08 13:53:46</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>8226</v>
+        <v>10000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1942,56 +1942,56 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.4253689236111111</v>
+        <v>-1.579010770972222</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251456</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:12:31</t>
+          <t>2025-05-08 13:53:46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:29:31</t>
+          <t>2025-05-08 14:43:46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:29:31</t>
+          <t>2025-05-08 14:43:46</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:01:10</t>
+          <t>2025-05-09 09:47:25</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>8999</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2004,13 +2004,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2018,26 +2018,26 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.5008138020833334</v>
+        <v>-3.407936507939815</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>251227</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2045,33 +2045,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:01:10</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:18:10</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:18:10</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:53:30</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2080,17 +2080,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2098,26 +2098,26 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.5371636284722222</v>
+        <v>-1.315277777777778</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>251395</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2125,29 +2125,29 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:53:30</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:08:30</t>
+          <t>2025-05-07 08:08:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:08:30</t>
+          <t>2025-05-07 08:08:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:43:51</t>
+          <t>2025-05-07 08:43:20</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2182,14 +2182,14 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.5721245659722223</v>
+        <v>-0.3634331597222222</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251548</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2205,33 +2205,33 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>206.90625</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:43:51</t>
+          <t>2025-05-07 08:43:20</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:51</t>
+          <t>2025-05-07 08:58:20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:02:51</t>
+          <t>2025-05-07 08:58:20</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 09:29:45</t>
+          <t>2025-05-07 09:33:41</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13242</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2262,14 +2262,14 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-1.395670572916667</v>
+        <v>-0.3983940972222222</v>
       </c>
       <c r="T23" t="n">
         <v>7</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250923</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2285,33 +2285,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>109.46875</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:29:45</t>
+          <t>2025-05-07 09:33:41</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:01:45</t>
+          <t>2025-05-07 09:52:41</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:01:45</t>
+          <t>2025-05-07 09:52:41</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:51:14</t>
+          <t>2025-05-07 13:19:35</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7006</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2320,14 +2320,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
         <v>39749</v>
@@ -2342,22 +2342,22 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-1.493912760416667</v>
+        <v>-0.5552734375</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251477</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2365,33 +2365,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>468.734375</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:51:14</t>
+          <t>2025-05-07 13:19:35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:10:14</t>
+          <t>2025-05-07 13:51:35</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:10:14</t>
+          <t>2025-05-07 13:51:35</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:58:58</t>
+          <t>2025-05-08 07:41:03</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>29999</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2400,17 +2400,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,26 +2418,26 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-2.499283854166667</v>
+        <v>-1.320182291666667</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251416</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2445,33 +2445,33 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>175.34375</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 11:58:58</t>
+          <t>2025-05-08 07:41:03</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:58</t>
+          <t>2025-05-08 08:00:03</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 12:30:58</t>
+          <t>2025-05-08 08:00:03</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 07:26:18</t>
+          <t>2025-05-09 07:48:47</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11222</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,97 +2480,97 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>0</v>
+        <v>-2.325553385416667</v>
       </c>
       <c r="T26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251706</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>50.79365079365079</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>3200</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N27" t="n">
+        <v>39747</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2578,21 +2578,21 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>74.6056338028169</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,76 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-1.367087245694445</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251547</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>184.9154929577465</v>
+        <v>96.14754098360656</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 08:48:36</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>13129</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -642,7 +640,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
@@ -660,14 +658,14 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1.505917449143519</v>
+        <v>-1.382741347905093</v>
       </c>
       <c r="T3" t="n">
         <v>7</v>
@@ -675,41 +673,41 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-08 09:11:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 09:31:08</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 09:31:08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 11:04:49</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,17 +716,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -736,18 +734,18 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-0.5267507824768519</v>
+        <v>-0.4616803278703704</v>
       </c>
       <c r="T4" t="n">
         <v>1</v>
@@ -755,41 +753,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:38:31</t>
+          <t>2025-05-08 11:04:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 11:29:49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-05-08 11:29:49</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-08 13:44:40</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -798,17 +796,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -816,60 +814,60 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S5" s="1" t="n">
-        <v>-0.6193075117361111</v>
+        <v>-1.572688979965278</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250894</v>
+        <v>251229</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>623.4084507042254</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-05-08 13:44:40</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-05-08 14:14:40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-09 11:21:52</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>44262</v>
+        <v>18739</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -878,27 +876,31 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
@@ -908,46 +910,46 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251164</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>158.056338028169</v>
+        <v>156.25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 10:08:12</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 12:46:16</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>10000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -960,72 +962,74 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>0</v>
+        <v>-0.4161458333333333</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251742</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>134.8524590163935</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 10:31:15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-07 10:31:15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 12:20:43</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8226</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,14 +1038,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
         <v>39749</v>
@@ -1056,56 +1060,56 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5143880208333333</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251455</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>82.765625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-07 12:20:43</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 12:52:43</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-07 12:52:43</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 14:15:29</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>5297</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1118,13 +1122,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1132,60 +1136,60 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5940863715277778</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251229</v>
+        <v>251371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 14:15:29</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 14:30:29</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 14:30:29</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 14:30:29</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1194,18 +1198,18 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1214,60 +1218,60 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39723</v>
+        <v>39666</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>0</v>
+        <v>-13.60450303819444</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251651</v>
+        <v>251395</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>767.7049180327868</v>
+        <v>35.34375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 14:30:29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 14:49:29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 14:49:29</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 07:24:49</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>46830</v>
+        <v>2262</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1276,76 +1280,78 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>0</v>
+        <v>-1.308908420138889</v>
       </c>
       <c r="T11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:24:49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 07:39:49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 07:39:49</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 08:15:10</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1358,15 +1364,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1374,18 +1378,18 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-15.32430555555556</v>
+        <v>-1.343869357638889</v>
       </c>
       <c r="T12" t="n">
         <v>7</v>
@@ -1393,41 +1397,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251050</v>
+        <v>251548</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 07:47:00</t>
+          <t>2025-05-08 08:15:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:34:10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 08:34:10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:01:04</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1436,17 +1440,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1454,60 +1458,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.500748697916667</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251054</v>
+        <v>251477</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:01:04</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 12:33:04</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-08 12:33:04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-09 12:21:48</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1516,17 +1520,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1534,26 +1538,26 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>-1.490972222222222</v>
+        <v>-2.515147569444444</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251081</v>
+        <v>251050</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1561,33 +1565,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="D15" t="n">
-        <v>42.42253521126761</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 11:47:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 13:52:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 14:34:25</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3012</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1600,15 +1604,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N15" t="n">
+        <v>39747</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1616,18 +1618,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39750</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-16.60723787167824</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T15" t="n">
         <v>2</v>
@@ -1635,41 +1637,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251782</v>
+        <v>251054</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1678,17 +1680,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1696,80 +1698,80 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251706</v>
+        <v>251081</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D17" t="n">
-        <v>50.79365079365079</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3200</v>
+        <v>3012</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1778,60 +1780,60 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39764</v>
+        <v>39750</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>0</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>40.5</v>
       </c>
       <c r="D18" t="n">
-        <v>119.6938775510204</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:50:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1840,17 +1842,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1858,79 +1860,81 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1.4095096371875</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251164</v>
+        <v>251706</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>204.0816326530612</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:49:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:29:41</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:46</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>10000</v>
+        <v>3200</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1938,60 +1942,60 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-1.579010770972222</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251456</v>
+        <v>251547</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
-        <v>183.6530612244898</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 13:53:46</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:46</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:43:46</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:47:25</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8999</v>
+        <v>13129</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2004,13 +2008,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2018,56 +2022,56 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-3.407936507939815</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251227</v>
+        <v>251225</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -2090,7 +2094,7 @@
         <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2098,18 +2102,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-1.315277777777778</v>
+        <v>-0.4645246478819445</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
@@ -2117,41 +2121,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251395</v>
+        <v>250759</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:00</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:00</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 08:43:20</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>8398</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2160,17 +2164,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2178,60 +2182,60 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-0.3634331597222222</v>
+        <v>-0.5570813771527778</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>250894</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:43:20</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:20</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:20</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 09:33:41</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>44262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2240,78 +2244,76 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>0</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.3983940972222222</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>251456</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:33:41</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:52:41</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 09:52:41</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-07 13:19:35</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>8999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2324,13 +2326,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2338,60 +2340,60 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>-0.5552734375</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251416</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-07 13:19:35</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-07 13:51:35</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-07 13:51:35</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 07:41:03</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>11222</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2400,36 +2402,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.320182291666667</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>2</v>
@@ -2437,41 +2437,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:41:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:00:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 08:00:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:48:47</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,17 +2480,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2498,18 +2498,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.325553385416667</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2517,41 +2517,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:36:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:26:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,17 +2560,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2578,18 +2578,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3097515649421296</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251547</v>
+        <v>251651</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>184.9154929577465</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>13129</v>
+        <v>46830</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,78 +558,76 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>70</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="T2" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>118.2816901408451</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -638,17 +636,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -656,60 +654,60 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250894</v>
+        <v>251840</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>623.4084507042254</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>44262</v>
+        <v>5714</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,76 +716,78 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251416</v>
+        <v>251229</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>158.056338028169</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-12 08:23:36</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:39</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>11222</v>
+        <v>18739</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -796,27 +796,31 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39723</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
@@ -826,23 +830,23 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251742</v>
+        <v>251164</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>134.8524590163935</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -851,21 +855,21 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8226</v>
+        <v>10000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -878,7 +882,7 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
@@ -896,56 +900,56 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="S6" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.471584467118056</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251840</v>
+        <v>251456</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>93.67213114754098</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-05-08 12:09:04</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-09 07:12:44</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>5714</v>
+        <v>8999</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -958,13 +962,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -972,7 +976,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -980,10 +984,10 @@
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="S7" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-3.300510204085648</v>
       </c>
       <c r="T7" t="n">
         <v>1</v>
@@ -991,41 +995,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251229</v>
+        <v>251455</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>307.1967213114754</v>
+        <v>82.765625</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>18739</v>
+        <v>5297</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1034,19 +1038,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1054,60 +1056,60 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>0</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251164</v>
+        <v>251391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>204.0816326530612</v>
+        <v>91.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>5865</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1120,7 +1122,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1138,56 +1140,56 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251456</v>
+        <v>251395</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>183.6530612244898</v>
+        <v>35.34375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8999</v>
+        <v>2262</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1200,13 +1202,13 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1214,56 +1216,56 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251050</v>
+        <v>251371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1276,17 +1278,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39747</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1294,60 +1298,60 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251054</v>
+        <v>251396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1356,17 +1360,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1374,60 +1378,60 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251081</v>
+        <v>251548</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>42.42253521126761</v>
+        <v>206.90625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>3012</v>
+        <v>13242</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1436,19 +1440,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N13" t="n">
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1456,60 +1458,60 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251651</v>
+        <v>250923</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>767.7049180327868</v>
+        <v>109.46875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>46830</v>
+        <v>7006</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1518,7 +1520,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1528,66 +1530,68 @@
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>0</v>
+        <v>-1.446853298611111</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251225</v>
+        <v>251477</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1596,17 +1600,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1614,18 +1618,18 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39760</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -1633,41 +1637,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251227</v>
+        <v>251416</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>175.34375</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 11:23:12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 14:18:32</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>11222</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1676,78 +1680,76 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251782</v>
+        <v>251050</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="D17" t="n">
-        <v>170.0422535211268</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1756,17 +1758,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1774,81 +1776,79 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251706</v>
+        <v>251054</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>50.79365079365079</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N18" t="n">
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1856,60 +1856,60 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>0</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251081</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>3012</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1918,17 +1918,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1936,60 +1938,60 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="T19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251284</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>16340</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1998,17 +2000,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2016,79 +2018,81 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>251706</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>3200</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2096,18 +2100,18 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2115,41 +2119,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251547</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2167,10 +2171,8 @@
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2178,18 +2180,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="T22" t="n">
         <v>7</v>
@@ -2197,41 +2199,41 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>250759</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>8398</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2240,17 +2242,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2258,60 +2260,60 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>250894</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-05-08 13:24:11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-12 07:47:36</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>44262</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2320,78 +2322,76 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>4</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-05-06 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="T24" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251225</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2404,13 +2404,13 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2418,60 +2418,60 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,17 +2480,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2498,18 +2498,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S26" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="T26" t="n">
         <v>1</v>
@@ -2517,41 +2517,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251782</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>12073</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,17 +2560,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2578,18 +2578,18 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>39754</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251651</v>
+        <v>250759</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>767.7049180327868</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 09:17:16</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>46830</v>
+        <v>8398</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,95 +558,96 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4</v>
+        <v>-0.3870011737037037</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>251706</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>96.14754098360656</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>3200</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
-      </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -654,60 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39764</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4377821180555556</v>
-      </c>
-      <c r="S3" s="1" t="n">
-        <v>-1.382741347905093</v>
-      </c>
-      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251840</v>
+        <v>251164</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>93.67213114754098</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:11:08</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:31:08</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:31:08</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 11:04:49</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5714</v>
+        <v>10000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -720,13 +718,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -734,60 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4885587431712963</v>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v>-0.4616803278703704</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1</v>
+        <v>-2.429059076678241</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251742</v>
+        <v>251050</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="D5" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:04:49</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:49</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:49</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:40</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -796,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -814,60 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.406147540983796</v>
-      </c>
-      <c r="S5" s="1" t="n">
-        <v>-1.572688979965278</v>
-      </c>
-      <c r="T5" t="n">
-        <v>7</v>
+        <v>-1.564475743344907</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251229</v>
+        <v>251054</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>307.1967213114754</v>
+        <v>0</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:44:40</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:14:40</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 11:21:52</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>18739</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -876,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39747</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -896,60 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1</v>
+        <v>-1.588781298900463</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251164</v>
+        <v>251081</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
-        <v>156.25</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-05-12 08:55:16</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>10000</v>
+        <v>3012</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -958,17 +945,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
-      <c r="N7" t="n">
-        <v>39749</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -976,60 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.471584467118056</v>
-      </c>
-      <c r="S7" s="1" t="n">
-        <v>-0.4161458333333333</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4</v>
+        <v>-19.37171361502315</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250923</v>
+        <v>251456</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>109.46875</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:31:15</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:31:15</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 12:20:43</t>
+          <t>2025-05-08 09:52:31</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7006</v>
+        <v>8999</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1038,17 +1024,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1056,60 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.446853298611111</v>
-      </c>
-      <c r="S8" s="1" t="n">
-        <v>-0.5143880208333333</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2</v>
+        <v>-2.411475409837963</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251455</v>
+        <v>251371</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>82.765625</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:20:43</t>
+          <t>2025-05-08 09:52:31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:52:43</t>
+          <t>2025-05-08 10:17:31</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:52:43</t>
+          <t>2025-05-08 10:17:31</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 14:15:29</t>
+          <t>2025-05-08 10:17:31</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5297</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1127,8 +1110,10 @@
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39749</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1136,60 +1121,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3623372395833334</v>
-      </c>
-      <c r="S9" s="1" t="n">
-        <v>-0.5940863715277778</v>
-      </c>
-      <c r="T9" t="n">
+        <v>-14.42883652094907</v>
+      </c>
+      <c r="S9" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251371</v>
+        <v>251742</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:15:29</t>
+          <t>2025-05-08 10:17:31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:29</t>
+          <t>2025-05-08 10:37:31</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:29</t>
+          <t>2025-05-08 10:37:31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:29</t>
+          <t>2025-05-08 12:52:22</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>8226</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1207,10 +1189,8 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1218,60 +1198,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-13.48732638888889</v>
-      </c>
-      <c r="S10" s="1" t="n">
-        <v>-13.60450303819444</v>
-      </c>
-      <c r="T10" t="n">
+        <v>-1.536372950821759</v>
+      </c>
+      <c r="S10" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251395</v>
+        <v>251840</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>35.34375</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 14:30:29</t>
+          <t>2025-05-08 12:52:22</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:29</t>
+          <t>2025-05-08 13:17:22</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 14:49:29</t>
+          <t>2025-05-08 13:17:22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:24:49</t>
+          <t>2025-05-08 14:51:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2262</v>
+        <v>5714</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1284,13 +1261,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1298,60 +1275,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4741319444444445</v>
-      </c>
-      <c r="S11" s="1" t="n">
-        <v>-1.308908420138889</v>
-      </c>
-      <c r="T11" t="n">
-        <v>7</v>
+        <v>-0.6187841530092593</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251396</v>
+        <v>251229</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>35.34375</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:24:49</t>
+          <t>2025-05-08 14:51:02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:39:49</t>
+          <t>2025-05-09 07:16:02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:39:49</t>
+          <t>2025-05-09 07:16:02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 08:15:10</t>
+          <t>2025-05-09 12:23:14</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2262</v>
+        <v>18739</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1360,7 +1334,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1369,8 +1343,10 @@
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39749</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1378,60 +1354,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5250651041666666</v>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>-1.343869357638889</v>
-      </c>
-      <c r="T12" t="n">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251548</v>
+        <v>251225</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:15:10</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:10</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 08:34:10</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:04</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1440,17 +1413,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1458,60 +1431,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.348611111111111</v>
-      </c>
-      <c r="S13" s="1" t="n">
-        <v>-1.500748697916667</v>
-      </c>
-      <c r="T13" t="n">
-        <v>7</v>
+        <v>-0.5131944444444444</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251477</v>
+        <v>251227</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:01:04</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:33:04</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:21:48</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1520,17 +1490,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1538,60 +1508,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-2.452224392361111</v>
-      </c>
-      <c r="S14" s="1" t="n">
-        <v>-2.515147569444444</v>
-      </c>
-      <c r="T14" t="n">
+        <v>-2.523611111111111</v>
+      </c>
+      <c r="S14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251050</v>
+        <v>251547</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>205.140625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:44:08</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1600,17 +1567,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1618,60 +1585,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S15" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
+        <v>-0.4473198784722222</v>
+      </c>
+      <c r="S15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251054</v>
+        <v>251455</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.765625</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-07 10:44:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:59:08</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 10:59:08</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:21:54</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1680,17 +1644,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1698,60 +1662,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S16" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2</v>
+        <v>-0.5152126736111111</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251081</v>
+        <v>251391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>42.42253521126761</v>
+        <v>91.640625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-07 12:21:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:38:54</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-07 12:38:54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-07 14:10:32</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3012</v>
+        <v>5865</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1760,19 +1721,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N17" t="n">
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1780,7 +1739,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1788,52 +1747,49 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S17" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2</v>
+        <v>-0.5906575520833334</v>
+      </c>
+      <c r="S17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251284</v>
+        <v>251395</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40.5</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>297.0909090909091</v>
+        <v>35.34375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 14:10:32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 14:27:32</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 14:27:32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 07:02:53</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>16340</v>
+        <v>2262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1842,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1860,81 +1816,76 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S18" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1</v>
+        <v>-1.293674045138889</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251706</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>50.79365079365079</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:02:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:17:53</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:17:53</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 07:53:14</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3200</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1942,60 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
+        <v>-1.328634982638889</v>
+      </c>
+      <c r="S19" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251547</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>184.9154929577465</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 07:53:14</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 08:12:14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 08:12:14</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 11:39:08</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13129</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2030,52 +1978,49 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="S20" s="1" t="n">
-        <v>-1.443691314548611</v>
-      </c>
-      <c r="T20" t="n">
+        <v>-1.485514322916667</v>
+      </c>
+      <c r="S20" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251225</v>
+        <v>250894</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>691.59375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-05-08 11:39:08</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:11:08</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-08 12:11:08</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 07:42:44</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>44262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2084,78 +2029,73 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5131944444444444</v>
-      </c>
-      <c r="S21" s="1" t="n">
-        <v>-0.4645246478819445</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250759</v>
+        <v>250923</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>118.2816901408451</v>
+        <v>109.46875</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-05-12 07:42:44</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-12 07:57:44</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-12 07:57:44</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-12 09:47:12</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8398</v>
+        <v>7006</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2164,17 +2104,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
         <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2182,60 +2122,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.5466647104861111</v>
-      </c>
-      <c r="S22" s="1" t="n">
-        <v>-0.5570813771527778</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1</v>
+        <v>-5.407779947916667</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250894</v>
+        <v>251477</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>623.4084507042254</v>
+        <v>468.734375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-12 09:47:12</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-12 10:06:12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-12 10:06:12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>44262</v>
+        <v>29999</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2244,76 +2181,75 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>76</v>
       </c>
       <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4</v>
+        <v>-6.413151041666667</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251456</v>
+        <v>251782</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>183.6530612244898</v>
+        <v>188.640625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-13 09:54:56</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-13 10:09:56</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-13 10:09:56</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-13 13:18:34</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8999</v>
+        <v>12073</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2322,17 +2258,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>3</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2340,60 +2276,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39746</v>
+        <v>39754</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-3.300510204085648</v>
-      </c>
-      <c r="S24" s="1" t="n">
-        <v>-2.446981292511574</v>
-      </c>
-      <c r="T24" t="n">
+        <v>-4.554568142361111</v>
+      </c>
+      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251416</v>
+        <v>251284</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="D25" t="n">
-        <v>229.0204081632653</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>11222</v>
+        <v>16340</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2402,76 +2335,75 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
         <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2</v>
+        <v>-1.526104797974537</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251227</v>
+        <v>251651</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>46830</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2480,78 +2412,73 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.523611111111111</v>
-      </c>
-      <c r="S26" s="1" t="n">
-        <v>-2.513194444444444</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251782</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D27" t="n">
-        <v>170.0422535211268</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 12:36:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:26:02</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12073</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2560,39 +2487,34 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-0.3201682316087963</v>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>-0.3097515649421296</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>250759</v>
+        <v>251227</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -545,11 +545,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 09:17:16</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -568,7 +568,7 @@
         <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,15 +576,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3870011737037037</v>
+        <v>-2.304861111111111</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -592,62 +592,60 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251706</v>
+        <v>251225</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>50.79365079365079</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N3" t="n">
+        <v>39747</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,18 +653,18 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-0.3152777777777778</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -675,33 +673,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>140.8450704225352</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-08 08:08:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-08 08:08:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-08 10:28:50</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -740,7 +738,7 @@
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-2.429059076678241</v>
+        <v>-1.436697965567129</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -748,41 +746,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251050</v>
+        <v>251547</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-08 10:28:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-08 10:47:50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-08 10:47:50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-08 13:52:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>13129</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +789,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +807,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.564475743344907</v>
+        <v>-1.578305946793982</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251054</v>
+        <v>250759</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-08 13:52:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-08 14:22:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-08 14:22:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-09 08:21:02</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,14 +866,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
         <v>39747</v>
@@ -890,53 +888,53 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.588781298900463</v>
+        <v>-1.347946009386574</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251081</v>
+        <v>250894</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>42.42253521126761</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-09 08:21:02</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-09 08:38:02</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-09 08:38:02</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 08:55:16</t>
+          <t>2025-05-12 11:01:27</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3012</v>
+        <v>44262</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,96 +943,94 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-19.37171361502315</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251456</v>
+        <v>251706</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>147.5245901639344</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:31</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>8999</v>
+        <v>3200</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39746</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,53 +1038,53 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39746</v>
+        <v>39764</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.411475409837963</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251371</v>
+        <v>251050</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:31</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:17:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:17:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:17:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1101,19 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39666</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-14.42883652094907</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251742</v>
+        <v>251054</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
-        <v>134.8524590163935</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:17:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:37:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-08 10:37:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:22</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>8226</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1180,17 +1174,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1198,57 +1192,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.536372950821759</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251840</v>
+        <v>251081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D11" t="n">
-        <v>93.67213114754098</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:52:22</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:17:22</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:17:22</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:02</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5714</v>
+        <v>3012</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1251,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39758</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,23 +1271,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39758</v>
+        <v>39750</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.6187841530092593</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251229</v>
+        <v>251456</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1302,30 +1298,30 @@
         <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>307.1967213114754</v>
+        <v>147.5245901639344</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:02</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:16:02</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-09 07:16:02</t>
+          <t>2025-05-08 07:25:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-09 12:23:14</t>
+          <t>2025-05-08 09:52:31</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>18739</v>
+        <v>8999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,19 +1330,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1354,15 +1348,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39723</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-2.411475409837963</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1370,41 +1364,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251225</v>
+        <v>251840</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 09:52:31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:22:31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:22:31</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 11:56:11</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1413,17 +1407,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1431,15 +1425,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.4973588342476852</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -1447,76 +1441,78 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251227</v>
+        <v>251229</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
+        <v>307.1967213114754</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:56:11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:21:11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:21:11</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-05-09 09:28:23</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>18739</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>70</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>39723</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R14" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>4</v>
-      </c>
-      <c r="M14" t="n">
-        <v>76</v>
-      </c>
-      <c r="N14" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P14" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R14" s="1" t="n">
-        <v>-2.523611111111111</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1524,41 +1520,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251547</v>
+        <v>251782</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>205.140625</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 10:44:08</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>13129</v>
+        <v>12073</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1567,17 +1563,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,57 +1581,57 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4473198784722222</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251455</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>82.765625</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:44:08</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:59:08</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 10:59:08</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-07 12:21:54</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5297</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,75 +1640,73 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>4</v>
-      </c>
-      <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P16" t="n">
-        <v>39749</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2025-04-15 00:00:00</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="n">
-        <v>-0.5152126736111111</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251391</v>
+        <v>251416</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D17" t="n">
-        <v>91.640625</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 12:21:54</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 12:38:54</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 12:38:54</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 14:10:32</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5865</v>
+        <v>11222</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1725,21 +1719,19 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1747,15 +1739,15 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.5906575520833334</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251395</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1763,33 +1755,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>35.34375</v>
+        <v>128.53125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 14:10:32</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 14:27:32</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 14:27:32</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:02:53</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2262</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1802,7 +1794,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1820,11 +1812,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.293674045138889</v>
+        <v>-0.3941189236111111</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1832,7 +1824,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1843,30 +1835,30 @@
         <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:02:53</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:53</t>
+          <t>2025-05-07 09:42:31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:53</t>
+          <t>2025-05-07 09:42:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:14</t>
+          <t>2025-05-07 11:05:17</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1879,7 +1871,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1897,11 +1889,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.328634982638889</v>
+        <v>-0.46201171875</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1909,7 +1901,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1917,33 +1909,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:53:14</t>
+          <t>2025-05-07 11:05:17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 08:12:14</t>
+          <t>2025-05-07 11:22:17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 08:12:14</t>
+          <t>2025-05-07 11:22:17</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:39:08</t>
+          <t>2025-05-07 12:53:56</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1956,7 +1948,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1974,11 +1966,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.485514322916667</v>
+        <v>-0.5374565972222223</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1986,7 +1978,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250894</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1994,33 +1986,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>691.59375</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:39:08</t>
+          <t>2025-05-07 12:53:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:11:08</t>
+          <t>2025-05-07 13:10:56</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:11:08</t>
+          <t>2025-05-07 13:10:56</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:44</t>
+          <t>2025-05-07 13:46:16</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>44262</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,39 +2021,41 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>0</v>
+        <v>-0.5738064236111111</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>250923</v>
+        <v>251371</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2069,33 +2063,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:42:44</t>
+          <t>2025-05-07 13:46:16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:44</t>
+          <t>2025-05-07 14:05:16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:57:44</t>
+          <t>2025-05-07 14:05:16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 09:47:12</t>
+          <t>2025-05-07 14:05:16</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2104,17 +2098,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39749</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2122,23 +2118,23 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-5.407779947916667</v>
+        <v>-13.58700086805556</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251477</v>
+        <v>251396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2149,30 +2145,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>468.734375</v>
+        <v>35.34375</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-12 09:47:12</t>
+          <t>2025-05-07 14:05:16</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:12</t>
+          <t>2025-05-07 14:24:16</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-12 10:06:12</t>
+          <t>2025-05-07 14:24:16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-07 14:59:37</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>29999</v>
+        <v>2262</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2181,17 +2177,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2199,23 +2195,23 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39760</v>
+        <v>39749</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-6.413151041666667</v>
+        <v>-0.6247395833333333</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251782</v>
+        <v>251548</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2223,33 +2219,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" t="n">
-        <v>188.640625</v>
+        <v>206.90625</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-13 09:54:56</t>
+          <t>2025-05-07 14:59:37</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-13 10:09:56</t>
+          <t>2025-05-08 07:18:37</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-13 10:09:56</t>
+          <t>2025-05-08 07:18:37</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-13 13:18:34</t>
+          <t>2025-05-08 10:45:31</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12073</v>
+        <v>13242</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2258,17 +2254,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2276,57 +2272,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39754</v>
+        <v>39749</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-4.554568142361111</v>
+        <v>-1.448285590277778</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251284</v>
+        <v>250923</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>40.5</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>297.0909090909091</v>
+        <v>109.46875</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:45:31</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:17:31</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:17:31</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-08 13:07:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>16340</v>
+        <v>7006</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2335,17 +2331,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2353,57 +2349,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-1.546527777777778</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251651</v>
+        <v>251477</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D26" t="n">
-        <v>767.7049180327868</v>
+        <v>468.734375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 13:07:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 13:26:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-08 13:26:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 13:14:44</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>46830</v>
+        <v>29999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2412,73 +2408,75 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
         <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39760</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39760</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-2.551898871527778</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>35</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>229.0204081632653</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2487,34 +2485,36 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,60 +515,62 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251227</v>
+        <v>251706</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39746</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,53 +578,53 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39746</v>
+        <v>39764</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-2.304861111111111</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251225</v>
+        <v>251050</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -635,14 +637,14 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
         <v>39747</v>
@@ -657,53 +659,53 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.3152777777777778</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251164</v>
+        <v>251054</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>140.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 08:08:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 08:08:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 10:28:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.436697965567129</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251547</v>
+        <v>251081</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D5" t="n">
-        <v>184.9154929577465</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:28:50</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:47:50</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 10:47:50</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 13:52:45</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>13129</v>
+        <v>3012</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -789,17 +791,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
-      <c r="N5" t="n">
-        <v>39749</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -807,57 +811,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.578305946793982</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250759</v>
+        <v>251284</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="D6" t="n">
-        <v>118.2816901408451</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 13:52:45</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:22:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:22:45</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 08:21:02</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8398</v>
+        <v>16340</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,14 +870,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
         <v>39747</v>
@@ -888,11 +892,11 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.347946009386574</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -900,41 +904,41 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>250894</v>
+        <v>251742</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>623.4084507042254</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 08:21:02</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:02</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 08:38:02</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-12 11:01:27</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>44262</v>
+        <v>8226</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -943,94 +947,94 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251706</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>50.79365079365079</v>
+        <v>163.9344262295082</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:14:51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 10:14:51</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 12:58:47</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3200</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>70</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39764</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-1.540824225868056</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251050</v>
+        <v>251840</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:58:47</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 13:23:47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 13:23:47</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 14:57:27</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5714</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1119,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39758</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-0.6232354280555555</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251054</v>
+        <v>251229</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 14:57:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:22:27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 07:22:27</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-09 12:29:39</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>18739</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,17 +1178,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39747</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1192,57 +1198,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39747</v>
+        <v>39723</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251081</v>
+        <v>251782</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>42.42253521126761</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3012</v>
+        <v>12073</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,19 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>39754</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,34 +1275,34 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39750</v>
+        <v>39754</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251456</v>
+        <v>251225</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>147.5245901639344</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1307,21 +1311,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:25:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:31</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1330,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1348,15 +1352,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.411475409837963</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1364,41 +1368,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251840</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>93.67213114754098</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 09:52:31</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:22:31</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:22:31</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:56:11</t>
+          <t>2025-05-08 10:53:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5714</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1411,13 +1415,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1425,57 +1429,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39758</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-0.4973588342476852</v>
+        <v>-1.454107981215278</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251229</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>307.1967213114754</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:56:11</t>
+          <t>2025-05-08 10:53:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:11</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:11</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 09:28:23</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>18739</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1484,19 +1488,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N14" t="n">
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1504,15 +1506,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39723</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.5570813771527778</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -1520,41 +1522,41 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251782</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>17</v>
       </c>
       <c r="D15" t="n">
-        <v>170.0422535211268</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-08 13:39:11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-12 08:02:36</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>12073</v>
+        <v>44262</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,36 +1565,34 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1672,41 +1672,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251416</v>
+        <v>251227</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>229.0204081632653</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>11222</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1715,39 +1715,41 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+        <v>39746</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>39746</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-1.315277777777778</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251455</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1755,33 +1757,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>128.53125</v>
+        <v>82.765625</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-07 08:04:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-07 09:26:45</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>5297</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1812,11 +1814,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.3941189236111111</v>
+        <v>-0.3935872395833334</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1824,7 +1826,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1832,33 +1834,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>91.640625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-07 09:26:45</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:42:31</t>
+          <t>2025-05-07 09:43:45</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:42:31</t>
+          <t>2025-05-07 09:43:45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:05:17</t>
+          <t>2025-05-07 11:15:24</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>5865</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1871,7 +1873,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1889,11 +1891,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.46201171875</v>
+        <v>-0.4690321180555556</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1901,7 +1903,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251395</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1912,30 +1914,30 @@
         <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>35.34375</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:05:17</t>
+          <t>2025-05-07 11:15:24</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:17</t>
+          <t>2025-05-07 11:32:24</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:17</t>
+          <t>2025-05-07 11:32:24</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:53:56</t>
+          <t>2025-05-07 12:07:45</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>2262</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1948,7 +1950,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1970,7 +1972,7 @@
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5374565972222223</v>
+        <v>-0.5053819444444444</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1978,7 +1980,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>251371</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1986,33 +1988,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:53:56</t>
+          <t>2025-05-07 12:07:45</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:10:56</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:10:56</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:46:16</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2025,13 +2027,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>70</v>
       </c>
-      <c r="N21" t="n">
-        <v>39749</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,15 +2043,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5738064236111111</v>
+        <v>-13.51857638888889</v>
       </c>
       <c r="S21" t="n">
         <v>7</v>
@@ -2055,7 +2059,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251371</v>
+        <v>251396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2066,30 +2070,30 @@
         <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:46:16</t>
+          <t>2025-05-07 12:26:45</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:16</t>
+          <t>2025-05-07 12:45:45</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:16</t>
+          <t>2025-05-07 12:45:45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:16</t>
+          <t>2025-05-07 13:21:05</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,15 +2106,13 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
         <v>70</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N22" t="n">
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2118,15 +2120,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39666</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-13.58700086805556</v>
+        <v>-0.5563151041666666</v>
       </c>
       <c r="S22" t="n">
         <v>7</v>
@@ -2134,7 +2136,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251396</v>
+        <v>251548</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2145,30 +2147,30 @@
         <v>19</v>
       </c>
       <c r="D23" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:05:16</t>
+          <t>2025-05-07 13:21:05</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:24:16</t>
+          <t>2025-05-07 13:40:05</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:24:16</t>
+          <t>2025-05-07 13:40:05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:59:37</t>
+          <t>2025-05-08 09:07:00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2181,7 +2183,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
@@ -2199,11 +2201,11 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-0.6247395833333333</v>
+        <v>-1.379861111111111</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2211,7 +2213,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251548</v>
+        <v>250923</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2219,33 +2221,33 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>206.90625</v>
+        <v>109.46875</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-07 14:59:37</t>
+          <t>2025-05-08 09:07:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:18:37</t>
+          <t>2025-05-08 09:39:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:18:37</t>
+          <t>2025-05-08 09:39:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:45:31</t>
+          <t>2025-05-08 11:28:28</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13242</v>
+        <v>7006</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2254,14 +2256,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N24" t="n">
         <v>39749</v>
@@ -2276,19 +2278,19 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.448285590277778</v>
+        <v>-1.478103298611111</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251477</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2296,33 +2298,33 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>468.734375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:45:31</t>
+          <t>2025-05-08 11:28:28</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:17:31</t>
+          <t>2025-05-08 11:47:28</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:17:31</t>
+          <t>2025-05-08 11:47:28</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:00</t>
+          <t>2025-05-09 11:36:12</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>29999</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2331,17 +2333,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2349,57 +2351,57 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.546527777777778</v>
+        <v>-2.483474392361111</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251456</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:26:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:14:44</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>8999</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2408,17 +2410,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2426,15 +2428,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39746</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.551898871527778</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
@@ -2442,41 +2444,41 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251284</v>
+        <v>251416</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="D27" t="n">
-        <v>297.0909090909091</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16340</v>
+        <v>11222</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2485,36 +2487,34 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,62 +515,60 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251706</v>
+        <v>251225</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>50.79365079365079</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39747</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,53 +576,53 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39764</v>
+        <v>39747</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251050</v>
+        <v>251227</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>217</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -637,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39747</v>
+        <v>39746</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251054</v>
+        <v>250923</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 14:29:40</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>7006</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +712,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,15 +730,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-1.603941705787037</v>
       </c>
       <c r="S4" t="n">
         <v>2</v>
@@ -748,41 +746,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251081</v>
+        <v>250894</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>42.42253521126761</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-05-08 14:29:40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 14:44:40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-05-08 14:44:40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-05-12 09:08:05</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>3012</v>
+        <v>44262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,154 +789,152 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39750</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251284</v>
+        <v>251706</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>40.5</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>297.0909090909091</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16340</v>
+        <v>3200</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R6" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251742</v>
+        <v>251164</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>134.8524590163935</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8226</v>
+        <v>10000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,7 +947,7 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
@@ -969,53 +965,53 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-2.429059076678241</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251050</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="D8" t="n">
-        <v>163.9344262295082</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:51</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:51</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:47</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,17 +1020,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1038,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.540824225868056</v>
+        <v>-1.564475743344907</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251840</v>
+        <v>251054</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D9" t="n">
-        <v>93.67213114754098</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 12:58:47</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 13:23:47</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 13:23:47</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:27</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5714</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1097,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,57 +1115,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39758</v>
+        <v>39747</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.6232354280555555</v>
+        <v>-1.588781298900463</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251229</v>
+        <v>251081</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D10" t="n">
-        <v>307.1967213114754</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-08 14:57:27</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:27</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:22:27</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-09 12:29:39</t>
+          <t>2025-05-12 08:55:16</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>18739</v>
+        <v>3012</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1178,18 +1174,18 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>39723 (esterno)</t>
+          <t>39750 (esterno)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1198,57 +1194,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39723</v>
+        <v>39750</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-19.37171361502315</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251782</v>
+        <v>251284</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>40.5</v>
       </c>
       <c r="D11" t="n">
-        <v>170.0422535211268</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 12:17:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:07:02</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>12073</v>
+        <v>16340</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1253,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,15 +1271,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39754</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.2965571204976852</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1291,76 +1287,78 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251225</v>
+        <v>251229</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
+        <v>307.1967213114754</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:40:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:40:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:47:11</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>18739</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>70</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>39723</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2025-05-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="R12" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>76</v>
-      </c>
-      <c r="N12" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R12" s="1" t="n">
-        <v>-0.3048611111111111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1368,41 +1366,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251456</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>140.609375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-05-07 07:17:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-05-07 07:17:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:53:54</t>
+          <t>2025-05-07 09:37:36</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>8999</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,13 +1413,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1429,57 +1427,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.454107981215278</v>
+        <v>-1.401117621527778</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251742</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>128.53125</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:53:54</t>
+          <t>2025-05-07 09:37:36</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-07 09:54:36</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-07 09:54:36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-07 12:03:08</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>8226</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1488,17 +1486,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1506,57 +1504,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5570813771527778</v>
+        <v>-0.5021809895833333</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>251455</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>82.765625</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-07 12:03:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-07 12:18:08</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:39:11</t>
+          <t>2025-05-07 12:18:08</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-12 08:02:36</t>
+          <t>2025-05-07 13:40:54</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>5297</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1565,73 +1563,75 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>-0.5700737847222223</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>89.28125</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 13:40:54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 13:57:54</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-07 13:57:54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-08 07:27:11</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1640,39 +1640,41 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39758</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.310546875</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251227</v>
+        <v>251391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1680,33 +1682,33 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:27:11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 07:42:11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 07:42:11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 09:13:49</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1715,17 +1717,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1733,23 +1735,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.315277777777778</v>
+        <v>-1.384602864583333</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251455</v>
+        <v>251395</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1757,33 +1759,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
-        <v>82.765625</v>
+        <v>35.34375</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-05-08 09:13:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-08 09:30:49</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 08:04:00</t>
+          <t>2025-05-08 09:30:49</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:26:45</t>
+          <t>2025-05-08 10:06:10</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>5297</v>
+        <v>2262</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1796,7 +1798,7 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
@@ -1814,11 +1816,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.3935872395833334</v>
+        <v>-1.420952690972222</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1826,7 +1828,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251391</v>
+        <v>251396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1834,33 +1836,33 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>91.640625</v>
+        <v>35.34375</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:26:45</t>
+          <t>2025-05-08 10:06:10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:43:45</t>
+          <t>2025-05-08 10:21:10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:43:45</t>
+          <t>2025-05-08 10:21:10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:15:24</t>
+          <t>2025-05-08 10:56:30</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5865</v>
+        <v>2262</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1873,7 +1875,7 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
@@ -1891,11 +1893,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4690321180555556</v>
+        <v>-1.455913628472222</v>
       </c>
       <c r="S19" t="n">
         <v>7</v>
@@ -1903,7 +1905,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251395</v>
+        <v>251548</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1911,33 +1913,33 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D20" t="n">
-        <v>35.34375</v>
+        <v>206.90625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:15:24</t>
+          <t>2025-05-08 10:56:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:32:24</t>
+          <t>2025-05-08 11:15:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:32:24</t>
+          <t>2025-05-08 11:15:30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:07:45</t>
+          <t>2025-05-08 14:42:25</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2262</v>
+        <v>13242</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1950,7 +1952,7 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
@@ -1968,11 +1970,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5053819444444444</v>
+        <v>-1.61279296875</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1980,7 +1982,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251371</v>
+        <v>251477</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1988,33 +1990,33 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:07:45</t>
+          <t>2025-05-08 14:42:25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-09 07:14:25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-09 07:14:25</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-12 07:03:09</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2023,19 +2025,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39760</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2043,23 +2043,23 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39666</v>
+        <v>39760</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-13.51857638888889</v>
+        <v>-5.293858506944445</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>251782</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2067,33 +2067,33 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>188.640625</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:26:45</t>
+          <t>2025-05-12 07:03:09</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:45:45</t>
+          <t>2025-05-12 07:18:09</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 12:45:45</t>
+          <t>2025-05-12 07:18:09</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:21:05</t>
+          <t>2025-05-12 10:26:47</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>12073</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,17 +2102,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2120,57 +2120,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39754</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.5563151041666666</v>
+        <v>-3.435275607638889</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251548</v>
+        <v>251371</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:21:05</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:40:05</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 13:40:05</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 09:07:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2188,8 +2188,10 @@
       <c r="M23" t="n">
         <v>70</v>
       </c>
-      <c r="N23" t="n">
-        <v>39749</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2197,15 +2199,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.379861111111111</v>
+        <v>-14.31527777777778</v>
       </c>
       <c r="S23" t="n">
         <v>7</v>
@@ -2213,41 +2215,41 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>250923</v>
+        <v>251547</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D24" t="n">
-        <v>109.46875</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:07:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:39:00</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 09:39:00</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 11:28:28</t>
+          <t>2025-05-08 10:53:54</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>7006</v>
+        <v>13129</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2256,14 +2258,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
         <v>39749</v>
@@ -2278,53 +2280,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.478103298611111</v>
+        <v>-1.454107981215278</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>251477</v>
+        <v>250759</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>468.734375</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:28:28</t>
+          <t>2025-05-08 10:53:54</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:47:28</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:47:28</t>
+          <t>2025-05-08 11:23:54</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-09 11:36:12</t>
+          <t>2025-05-08 13:22:11</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>29999</v>
+        <v>8398</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2333,17 +2335,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>76</v>
       </c>
       <c r="N25" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2351,15 +2353,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39760</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-2.483474392361111</v>
+        <v>-0.5570813771527778</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -2367,7 +2369,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251456</v>
+        <v>251416</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2375,10 +2377,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D26" t="n">
-        <v>183.6530612244898</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2387,21 +2389,21 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>8999</v>
+        <v>11222</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2414,71 +2416,69 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
         <v>70</v>
       </c>
       <c r="N26" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>39746</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.446981292511574</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251416</v>
+        <v>251651</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>229.0204081632653</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:39</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:39</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:40</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11222</v>
+        <v>46830</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2487,14 +2487,14 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N27" t="n">
         <v>39755</v>
@@ -2507,14 +2507,14 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -519,7 +519,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -530,22 +530,22 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251227</v>
+        <v>251455</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 07:49:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5297</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>4</v>
       </c>
       <c r="M3" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-2.523611111111111</v>
+        <v>-1.377503912361111</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>250923</v>
+        <v>251547</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>98.67605633802818</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-05-08 09:03:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 09:18:36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-05-08 09:18:36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:40</t>
+          <t>2025-05-08 12:23:31</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7006</v>
+        <v>13129</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,14 +712,14 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
         <v>39749</v>
@@ -734,53 +734,53 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.603941705787037</v>
+        <v>-1.516334115810185</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250894</v>
+        <v>250759</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>623.4084507042254</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:29:40</t>
+          <t>2025-05-08 12:23:31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:40</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:44:40</t>
+          <t>2025-05-08 12:53:31</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-12 09:08:05</t>
+          <t>2025-05-08 14:51:48</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>44262</v>
+        <v>8398</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -789,152 +789,150 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-0.6193075117361111</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251706</v>
+        <v>250894</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2025-05-08 14:51:48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:08:48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:08:48</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-05-12 09:32:12</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>39764</v>
-      </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251164</v>
+        <v>251227</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
-        <v>140.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -943,17 +941,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -961,57 +959,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-2.429059076678241</v>
+        <v>-1.315277777777778</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251050</v>
+        <v>251164</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>156.25</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-07 07:34:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 08:08:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 08:08:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 10:44:15</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1020,17 +1018,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1038,57 +1036,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.564475743344907</v>
+        <v>-0.4473958333333333</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251054</v>
+        <v>251391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 10:44:15</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 11:01:15</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 11:01:15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:32:53</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1097,17 +1095,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1115,57 +1113,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-1.588781298900463</v>
+        <v>-0.5228407118055556</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251081</v>
+        <v>251395</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D10" t="n">
-        <v>42.42253521126761</v>
+        <v>35.34375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:32:53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-07 12:49:53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-07 12:49:53</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 08:55:16</t>
+          <t>2025-05-07 13:25:14</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>3012</v>
+        <v>2262</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1174,19 +1172,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N10" t="n">
+        <v>39749</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1194,7 +1190,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -1202,49 +1198,49 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-19.37171361502315</v>
+        <v>-0.5591905381944444</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251284</v>
+        <v>251371</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>40.5</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>297.0909090909091</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 13:25:14</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 13:44:14</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-05-07 13:44:14</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-05-07 13:44:14</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16340</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,17 +1249,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="n">
-        <v>39747</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39747</v>
+        <v>39666</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-13.57238498263889</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251229</v>
+        <v>251396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>307.1967213114754</v>
+        <v>35.34375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 13:44:14</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 14:03:14</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 14:03:14</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-07 14:38:34</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>18739</v>
+        <v>2262</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1330,7 +1328,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1339,10 +1337,8 @@
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39749</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,23 +1346,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.6101236979166667</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251456</v>
+        <v>251548</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1374,33 +1370,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="n">
-        <v>140.609375</v>
+        <v>206.90625</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-07 14:38:34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:17:00</t>
+          <t>2025-05-07 14:57:34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 07:17:00</t>
+          <t>2025-05-07 14:57:34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-07 09:37:36</t>
+          <t>2025-05-08 10:24:29</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>8999</v>
+        <v>13242</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1413,13 +1409,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1427,23 +1423,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39746</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.401117621527778</v>
+        <v>-1.433669704861111</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251742</v>
+        <v>250923</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1451,33 +1447,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>128.53125</v>
+        <v>109.46875</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-07 09:37:36</t>
+          <t>2025-05-08 10:24:29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:36</t>
+          <t>2025-05-08 10:56:29</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-07 09:54:36</t>
+          <t>2025-05-08 10:56:29</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-07 12:03:08</t>
+          <t>2025-05-08 12:45:57</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8226</v>
+        <v>7006</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,14 +1482,14 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N14" t="n">
         <v>39749</v>
@@ -1508,19 +1504,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5021809895833333</v>
+        <v>-1.531911892361111</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251455</v>
+        <v>251477</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1528,33 +1524,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>82.765625</v>
+        <v>468.734375</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-07 12:03:08</t>
+          <t>2025-05-08 12:45:57</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-07 12:18:08</t>
+          <t>2025-05-08 13:04:57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-07 12:18:08</t>
+          <t>2025-05-08 13:04:57</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-07 13:40:54</t>
+          <t>2025-05-09 12:53:41</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>5297</v>
+        <v>29999</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,17 +1559,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1581,76 +1577,78 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39760</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5700737847222223</v>
+        <v>-2.537282986111111</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251840</v>
+        <v>251706</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>89.28125</v>
+        <v>50.79365079365079</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:40:54</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:57:54</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-07 13:57:54</t>
+          <t>2025-05-12 07:00:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 07:27:11</t>
+          <t>2025-05-12 07:50:47</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5714</v>
+        <v>3200</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="n">
-        <v>39758</v>
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1658,57 +1656,57 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39758</v>
+        <v>39764</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-14 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.310546875</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251391</v>
+        <v>251050</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>217</v>
       </c>
       <c r="D17" t="n">
-        <v>91.640625</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:27:11</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:42:11</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 07:42:11</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-08 09:13:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5865</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1717,17 +1715,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M17" t="n">
         <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1735,57 +1733,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.384602864583333</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251395</v>
+        <v>251054</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D18" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:13:49</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:30:49</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:30:49</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 10:06:10</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1794,17 +1792,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1812,57 +1810,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.420952690972222</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251396</v>
+        <v>251081</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D19" t="n">
-        <v>35.34375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:06:10</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:21:10</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:21:10</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:30</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2262</v>
+        <v>3012</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1871,17 +1869,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
-      <c r="N19" t="n">
-        <v>39749</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1889,57 +1889,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39750</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.455913628472222</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251548</v>
+        <v>251742</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>206.90625</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:30</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:30</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:15:30</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 14:42:25</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>13242</v>
+        <v>8226</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1970,11 +1970,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.61279296875</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S20" t="n">
         <v>7</v>
@@ -1982,41 +1982,41 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251477</v>
+        <v>251840</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>468.734375</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 14:42:25</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:25</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-09 07:14:25</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-12 07:03:09</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>29999</v>
+        <v>5714</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39760</v>
+        <v>39758</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2043,15 +2043,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39760</v>
+        <v>39758</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-5.293858506944445</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
@@ -2059,41 +2059,41 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251782</v>
+        <v>251229</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>188.640625</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:03:09</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:18:09</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-12 07:18:09</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-12 10:26:47</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>12073</v>
+        <v>18739</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,17 +2102,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
-      </c>
-      <c r="N22" t="n">
-        <v>39754</v>
+        <v>70</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2120,15 +2122,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39754</v>
+        <v>39723</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-3.435275607638889</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>1</v>
@@ -2136,120 +2138,116 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251371</v>
+        <v>251651</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
+        <v>767.7049180327868</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:16:42</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>76</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:34:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:34:00</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:34:00</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>4</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>-14.31527777777778</v>
-      </c>
-      <c r="S23" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251547</v>
+        <v>251456</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D24" t="n">
-        <v>184.9154929577465</v>
+        <v>183.6530612244898</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:53:54</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>13129</v>
+        <v>8999</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -2262,13 +2260,13 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>70</v>
       </c>
       <c r="N24" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2276,57 +2274,57 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-1.454107981215278</v>
+        <v>-2.446981292511574</v>
       </c>
       <c r="S24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250759</v>
+        <v>251416</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>118.2816901408451</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:53:54</t>
+          <t>2025-05-08 10:43:39</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:23:54</t>
+          <t>2025-05-08 11:23:39</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 13:22:11</t>
+          <t>2025-05-09 07:12:40</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8398</v>
+        <v>11222</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2335,75 +2333,73 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>39747</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-0.5570813771527778</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251416</v>
+        <v>251782</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>229.0204081632653</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-08 12:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-09 07:07:02</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>11222</v>
+        <v>12073</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2412,50 +2408,52 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N26" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
+        <v>39754</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>39754</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>0</v>
+        <v>-0.2965571204976852</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>251651</v>
+        <v>251284</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29</v>
+        <v>40.5</v>
       </c>
       <c r="D27" t="n">
-        <v>767.7049180327868</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2464,21 +2462,21 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>46830</v>
+        <v>16340</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -2487,23 +2485,25 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N27" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2511,10 +2511,10 @@
         </is>
       </c>
       <c r="R27" s="1" t="n">
-        <v>0</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,76 +515,76 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251225</v>
+        <v>251565</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
+        <v>205.7213114754098</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:00:00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:20:00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:20:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-06-04 10:45:43</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>12549</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>70</v>
+      </c>
+      <c r="N2" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2025-06-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:19:00</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>76</v>
-      </c>
-      <c r="N2" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>-0.3048611111111111</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -592,41 +592,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251455</v>
+        <v>252282</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>74.6056338028169</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-06-04 11:20:43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-08 07:49:00</t>
+          <t>2025-06-04 11:20:43</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-06-04 12:05:36</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5297</v>
+        <v>2738</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1.377503912361111</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251547</v>
+        <v>251180</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>184.9154929577465</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:03:36</t>
+          <t>2025-06-04 12:05:36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:18:36</t>
+          <t>2025-06-04 12:30:36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-08 09:18:36</t>
+          <t>2025-06-04 12:30:36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-08 12:23:31</t>
+          <t>2025-06-04 12:30:36</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>13129</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -721,8 +721,10 @@
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="n">
-        <v>39749</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,15 +732,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39887</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.516334115810185</v>
+        <v>-15.52125455373843</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -746,41 +748,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>250759</v>
+        <v>251984</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>118.2816901408451</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:23:31</t>
+          <t>2025-06-04 12:30:36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-06-04 12:55:36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-08 12:53:31</t>
+          <t>2025-06-04 12:55:36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-06-05 10:33:56</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>8398</v>
+        <v>20638</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -789,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -807,15 +809,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.6193075117361111</v>
+        <v>-0.4402322404398148</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -823,41 +825,41 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>250894</v>
+        <v>252084</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>623.4084507042254</v>
+        <v>641</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-08 14:51:48</t>
+          <t>2025-06-05 10:33:56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-06-05 10:58:56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-09 07:08:48</t>
+          <t>2025-06-05 10:58:56</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 09:32:12</t>
+          <t>2025-06-06 13:39:56</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>44262</v>
+        <v>39101</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -866,69 +868,71 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-1.569398907106482</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251227</v>
+        <v>251082</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -936,22 +940,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -959,23 +963,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.315277777777778</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251164</v>
+        <v>251219</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -983,33 +987,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
-        <v>156.25</v>
+        <v>107.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-07 07:34:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-07 08:08:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-07 10:44:15</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>10000</v>
+        <v>6880</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1018,17 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1036,57 +1040,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.4473958333333333</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251391</v>
+        <v>251655</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>91.640625</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-07 10:44:15</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:01:15</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-07 11:01:15</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:53</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5865</v>
+        <v>114822</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1095,7 +1099,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1105,7 +1109,7 @@
         <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1113,57 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5228407118055556</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251395</v>
+        <v>251500</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>35.34375</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:32:53</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:49:53</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-07 12:49:53</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-07 13:25:14</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2262</v>
+        <v>9896</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1172,17 +1176,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1190,53 +1194,53 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.5591905381944444</v>
+        <v>-0.4391856060648148</v>
       </c>
       <c r="S10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251371</v>
+        <v>251773</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:25:14</t>
+          <t>2025-06-05 10:32:25</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:44:14</t>
+          <t>2025-06-05 11:08:55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:44:14</t>
+          <t>2025-06-05 11:08:55</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-07 13:44:14</t>
+          <t>2025-06-05 11:08:55</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1249,19 +1253,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39874</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1271,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39666</v>
+        <v>39874</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-13.57238498263889</v>
+        <v>-0.464532828287037</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251396</v>
+        <v>251780</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>38.5</v>
       </c>
       <c r="D12" t="n">
-        <v>35.34375</v>
+        <v>441.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-07 13:44:14</t>
+          <t>2025-06-05 11:08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-07 14:03:14</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-07 14:03:14</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-07 14:38:34</t>
+          <t>2025-06-06 11:09:13</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2262</v>
+        <v>24299</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1332,13 +1334,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39749</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,15 +1350,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39749</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.6101236979166667</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>7</v>
@@ -1362,41 +1366,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251548</v>
+        <v>251218</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>206.90625</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-07 14:38:34</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-07 14:57:34</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-07 14:57:34</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:24:29</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13242</v>
+        <v>6880</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,17 +1409,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,57 +1427,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.433669704861111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250923</v>
+        <v>251362</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n">
-        <v>109.46875</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:24:29</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:29</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:29</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 12:45:57</t>
+          <t>2025-06-04 14:56:10</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>7006</v>
+        <v>2505</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,13 +1490,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,57 +1504,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.531911892361111</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251477</v>
+        <v>251070</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D15" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 12:45:57</t>
+          <t>2025-06-04 14:56:10</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:04:57</t>
+          <t>2025-06-05 07:32:10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 13:04:57</t>
+          <t>2025-06-05 07:32:10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:53:41</t>
+          <t>2025-06-05 07:32:10</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1559,17 +1563,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39760</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1577,77 +1581,77 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39760</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-2.537282986111111</v>
+        <v>-0.3140160406828704</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251706</v>
+        <v>251895</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
-        <v>50.79365079365079</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 07:32:10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 07:55:10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:00:00</t>
+          <t>2025-06-05 07:55:10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 07:50:47</t>
+          <t>2025-06-05 12:04:23</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3200</v>
+        <v>17694</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>foglio</t>
+          <t>bobina</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>39764 (esterno)</t>
+          <t>39891 (esterno)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1656,53 +1660,53 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39764</v>
+        <v>39891</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-14 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-10.50305164319444</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251050</v>
+        <v>251752</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 12:04:23</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 12:48:23</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 12:48:23</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 12:48:23</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1715,17 +1719,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39846</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1733,57 +1737,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39846</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.442361111111111</v>
+        <v>-1.53360719875</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251054</v>
+        <v>251897</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-09 10:37:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18607</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1792,17 +1796,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="n">
-        <v>39747</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1810,57 +1816,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39891</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.466666666666667</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251081</v>
+        <v>251573</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D19" t="n">
-        <v>42.42253521126761</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-09 11:12:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:17:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-09 13:59:25</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3012</v>
+        <v>6203</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1869,19 +1875,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1889,57 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39750</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-16.58293231612268</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251742</v>
+        <v>252112</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>134.8524590163935</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>8226</v>
+        <v>12453</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,13 +1956,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1966,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251840</v>
+        <v>251631</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>93.67213114754098</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5714</v>
+        <v>10370</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2025,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2043,7 +2047,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2051,49 +2055,49 @@
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251229</v>
+        <v>251237</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D22" t="n">
-        <v>307.1967213114754</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>18739</v>
+        <v>40140</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2102,19 +2106,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2122,398 +2124,17 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>0</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251651</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BIMEC 4</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>29</v>
-      </c>
-      <c r="D23" t="n">
-        <v>767.7049180327868</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:29:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:29:00</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-12 12:16:42</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>46830</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>76</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251456</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>40</v>
-      </c>
-      <c r="D24" t="n">
-        <v>183.6530612244898</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:40:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:40:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:43:39</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>8999</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-05-09 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-2.446981292511574</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:43:39</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:23:39</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:23:39</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:12:40</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>2</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251782</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R12</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>17</v>
-      </c>
-      <c r="D26" t="n">
-        <v>170.0422535211268</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:00:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:17:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:17:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:07:02</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>12073</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39754</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39754</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-05-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-0.2965571204976852</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251284</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CASON</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D27" t="n">
-        <v>297.0909090909091</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:40:30</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:40:30</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-09 12:37:35</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>16340</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>CASON ;R6</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>7</v>
-      </c>
-      <c r="M27" t="n">
-        <v>70</v>
-      </c>
-      <c r="N27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>-1.526104797974537</v>
-      </c>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251565</v>
+        <v>251229</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>205.7213114754098</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-05-08 07:40:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-05-08 12:47:11</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12549</v>
+        <v>18739</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="n">
-        <v>39885</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,11 +578,11 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
@@ -592,41 +594,41 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>252282</v>
+        <v>251164</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D3" t="n">
-        <v>44.88524590163934</v>
+        <v>140.8450704225352</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-04 11:20:43</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-04 11:20:43</t>
+          <t>2025-05-09 07:57:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-04 12:05:36</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2738</v>
+        <v>10000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -639,13 +641,13 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,53 +655,53 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>0</v>
+        <v>-2.429059076678241</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251180</v>
+        <v>251050</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:05:36</t>
+          <t>2025-05-09 10:17:50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:30:36</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:30:36</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:30:36</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -712,19 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N4" t="n">
+        <v>39747</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39887</v>
+        <v>39747</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-15.52125455373843</v>
+        <v>-1.564475743344907</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251984</v>
+        <v>251054</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>338.327868852459</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:30:36</t>
+          <t>2025-05-09 13:32:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:55:36</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:55:36</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:56</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20638</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.4402322404398148</v>
+        <v>-1.588781298900463</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>252084</v>
+        <v>251081</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="D6" t="n">
-        <v>641</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:56</t>
+          <t>2025-05-09 14:07:50</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:58:56</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:58:56</t>
+          <t>2025-05-12 08:12:50</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-06 13:39:56</t>
+          <t>2025-05-12 08:55:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>39101</v>
+        <v>3012</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="n">
-        <v>39885</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,92 +888,90 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39750</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-1.569398907106482</v>
+        <v>-19.37171361502315</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251082</v>
+        <v>251416</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:00:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:35:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-05-08 07:35:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:24:01</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>70</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
+      <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R7" s="1" t="n">
-        <v>-0.2916666666666667</v>
       </c>
       <c r="S7" t="n">
         <v>2</v>
@@ -979,41 +979,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251219</v>
+        <v>251227</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>107.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6880</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,13 +1026,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,15 +1040,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-2.513194444444444</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1056,41 +1056,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 07:17:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N9" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,57 +1117,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251500</v>
+        <v>251371</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 10:07:02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -1185,8 +1185,10 @@
       <c r="M10" t="n">
         <v>70</v>
       </c>
-      <c r="N10" t="n">
-        <v>39885</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1194,57 +1196,57 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39885</v>
+        <v>39666</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.4391856060648148</v>
+        <v>-14.44377934271991</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251773</v>
+        <v>251456</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.5</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 10:32:25</t>
+          <t>2025-05-08 10:39:02</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:08:55</t>
+          <t>2025-05-08 10:56:02</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:08:55</t>
+          <t>2025-05-08 10:56:02</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:08:55</t>
+          <t>2025-05-08 13:02:47</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8999</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1253,17 +1255,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39874</v>
+        <v>39746</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1271,15 +1273,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39874</v>
+        <v>39746</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.464532828287037</v>
+        <v>-2.543603286388889</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1287,41 +1289,41 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251780</v>
+        <v>251840</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38.5</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
-        <v>441.8</v>
+        <v>80.47887323943662</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:08:55</t>
+          <t>2025-05-08 13:02:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 13:21:47</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 13:21:47</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 11:09:13</t>
+          <t>2025-05-08 14:42:16</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24299</v>
+        <v>5714</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,15 +1336,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39758</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,23 +1350,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39887</v>
+        <v>39758</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.6126858372453704</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251218</v>
+        <v>251547</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1374,33 +1374,33 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>96.90140845070422</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-08 14:42:16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-05-08 14:59:16</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-05-08 14:59:16</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-05-09 10:04:10</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6880</v>
+        <v>13129</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1427,23 +1427,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-2.419571596238426</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251362</v>
+        <v>250759</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1451,33 +1451,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>35.28169014084507</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-05-09 10:04:10</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-05-09 10:34:10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-05-09 10:34:10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 14:56:10</t>
+          <t>2025-05-09 12:32:27</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2505</v>
+        <v>8398</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,17 +1486,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>76</v>
       </c>
       <c r="N14" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1504,23 +1504,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-1.522544992175926</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251070</v>
+        <v>250894</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1528,110 +1528,108 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:32:27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:49:27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-05-09 12:49:27</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-05-13 07:12:52</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>76</v>
+      </c>
+      <c r="N15" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2025-06-04 14:56:10</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:32:10</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:32:10</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:32:10</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="P15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>6</v>
-      </c>
-      <c r="M15" t="n">
-        <v>70</v>
-      </c>
-      <c r="N15" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P15" t="n">
-        <v>39885</v>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3140160406828704</v>
+        <v>-0.3006064162731482</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251895</v>
+        <v>251651</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>249.2112676056338</v>
+        <v>767.7049180327868</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:10</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:55:10</t>
+          <t>2025-05-09 07:29:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-05-12 12:16:42</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>17694</v>
+        <v>46830</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1640,35 +1638,31 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N16" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>39891</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-10.50305164319444</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>4</v>
@@ -1676,41 +1670,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251752</v>
+        <v>251284</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>40.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:04:23</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:48:23</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:48:23</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 12:48:23</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>16340</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1719,17 +1713,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N17" t="n">
-        <v>39846</v>
+        <v>39747</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1737,15 +1731,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39846</v>
+        <v>39747</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.53360719875</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -1753,41 +1747,41 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251897</v>
+        <v>251742</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>305.0327868852459</v>
+        <v>128.53125</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>18607</v>
+        <v>8226</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1796,19 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>70</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N18" t="n">
+        <v>39749</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,57 +1808,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.3941189236111111</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251573</v>
+        <v>251455</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>89.89855072463769</v>
+        <v>82.765625</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-07 09:27:31</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-07 09:42:31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-07 09:42:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-07 11:05:17</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6203</v>
+        <v>5297</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,57 +1885,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-1.378401771331018</v>
+        <v>-0.46201171875</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>252112</v>
+        <v>251391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>254.1428571428571</v>
+        <v>91.640625</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-07 11:05:17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-07 11:22:17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-07 11:22:17</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-07 12:53:56</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12453</v>
+        <v>5865</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1956,13 +1948,13 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-0.5374565972222223</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251631</v>
+        <v>251395</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>146.056338028169</v>
+        <v>35.34375</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 12:53:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-07 13:10:56</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-07 13:10:56</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-07 13:46:16</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10370</v>
+        <v>2262</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,17 +2021,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2047,57 +2039,57 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.5738064236111111</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251237</v>
+        <v>251396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>565.3521126760563</v>
+        <v>35.34375</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-07 13:46:16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-07 14:01:16</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-07 14:01:16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-07 14:36:37</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>40140</v>
+        <v>2262</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2106,17 +2098,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>6</v>
       </c>
       <c r="M22" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N22" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2124,18 +2116,405 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-0.6087673611111111</v>
       </c>
       <c r="S22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251548</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>19</v>
+      </c>
+      <c r="D23" t="n">
+        <v>206.90625</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:36:37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:55:37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-07 14:55:37</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:22:31</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>13242</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-05-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>-1.432313368055556</v>
+      </c>
+      <c r="S23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251225</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:22:31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:52:31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:52:31</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:52:31</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>76</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-04-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-0.4531467013888889</v>
+      </c>
+      <c r="S24" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>250923</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>17</v>
+      </c>
+      <c r="D25" t="n">
+        <v>109.46875</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-08 10:52:31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:09:31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:09:31</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:59:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>7006</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.540972222222222</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251477</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BIMEC 2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>19</v>
+      </c>
+      <c r="D26" t="n">
+        <v>468.734375</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:59:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:18:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:18:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:06:44</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>29999</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>76</v>
+      </c>
+      <c r="N26" t="n">
+        <v>39760</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39760</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-2.546343315972222</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>foglio</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -515,41 +515,41 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251229</v>
+        <v>251164</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>307.1967213114754</v>
+        <v>156.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-08 07:40:00</t>
+          <t>2025-05-07 07:23:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-08 12:47:11</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>18739</v>
+        <v>10000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,7 +558,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
@@ -567,10 +567,8 @@
       <c r="M2" t="n">
         <v>70</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N2" t="n">
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -578,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39723</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-22 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>0</v>
+        <v>-0.4161458333333333</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251164</v>
+        <v>251371</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8450704225352</v>
+        <v>0</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-07 09:59:15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-09 07:57:00</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -641,13 +639,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39666 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39666</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-2.429059076678241</v>
+        <v>-13.42934027777778</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251050</v>
+        <v>251391</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>91.640625</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-09 10:17:50</t>
+          <t>2025-05-07 10:18:15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 10:35:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 10:35:15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 12:06:53</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5865</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1.564475743344907</v>
+        <v>-0.50478515625</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251054</v>
+        <v>251395</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>35.34375</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-09 13:32:50</t>
+          <t>2025-05-07 12:06:53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:23:53</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:23:53</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:59:14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2262</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-16 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-1.588781298900463</v>
+        <v>-0.5411349826388889</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251081</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>42.42253521126761</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-09 14:07:50</t>
+          <t>2025-05-07 12:59:14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-07 13:14:14</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:12:50</t>
+          <t>2025-05-07 13:14:14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-12 08:55:16</t>
+          <t>2025-05-07 13:49:34</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3012</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
+      <c r="N6" t="n">
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39750</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-19.37171361502315</v>
+        <v>-0.5760959201388889</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251416</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>229.0204081632653</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-07 13:49:34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 14:08:34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-08 07:35:00</t>
+          <t>2025-05-07 14:08:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 11:24:01</t>
+          <t>2025-05-08 09:35:29</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>11222</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -951,69 +949,71 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>39749</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>0</v>
+        <v>-1.399641927083333</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251227</v>
+        <v>251477</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>468.734375</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-05-08 09:35:29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:07:29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-08 10:07:29</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-05-09 09:56:13</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>29999</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1022,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>76</v>
       </c>
       <c r="N8" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,15 +1040,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39746</v>
+        <v>39760</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.513194444444444</v>
+        <v>-2.414040798611111</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
@@ -1060,33 +1060,33 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>170.0422535211268</v>
+        <v>188.640625</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-05-09 09:56:13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-09 10:11:13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 07:17:00</t>
+          <t>2025-05-09 10:11:13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:02</t>
+          <t>2025-05-09 13:19:51</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-0.5554578993055556</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1133,86 +1133,82 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251371</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
+        <v>767.7049180327868</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:16:42</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:07:02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:39:02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:39:02</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-05-08 10:39:02</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2025-05-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>39666 (esterno)</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39666</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2025-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="R10" s="1" t="n">
-        <v>-14.44377934271991</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251456</v>
+        <v>251225</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1220,33 +1216,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>126.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:39:02</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:02</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:56:02</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 13:02:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1255,17 +1251,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N11" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1273,15 +1269,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39746</v>
+        <v>39747</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-2.543603286388889</v>
+        <v>-0.3048611111111111</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1289,7 +1285,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251840</v>
+        <v>251456</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1297,33 +1293,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>80.47887323943662</v>
+        <v>126.7464788732394</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:02:47</t>
+          <t>2025-05-08 07:19:00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:21:47</t>
+          <t>2025-05-08 07:51:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:21:47</t>
+          <t>2025-05-08 07:51:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 14:42:16</t>
+          <t>2025-05-08 09:57:44</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>5714</v>
+        <v>8999</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1336,13 +1332,13 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1350,7 +1346,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39758</v>
+        <v>39746</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -1358,7 +1354,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.6126858372453704</v>
+        <v>-2.415101721435185</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1366,7 +1362,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251547</v>
+        <v>251455</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1377,30 +1373,30 @@
         <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>184.9154929577465</v>
+        <v>74.6056338028169</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:42:16</t>
+          <t>2025-05-08 09:57:44</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:59:16</t>
+          <t>2025-05-08 10:14:44</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 14:59:16</t>
+          <t>2025-05-08 10:14:44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:10</t>
+          <t>2025-05-08 11:29:21</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>13129</v>
+        <v>5297</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1431,11 +1427,11 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-2.419571596238426</v>
+        <v>-1.478716744918982</v>
       </c>
       <c r="S13" t="n">
         <v>7</v>
@@ -1443,7 +1439,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>250759</v>
+        <v>251547</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1451,33 +1447,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>118.2816901408451</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:04:10</t>
+          <t>2025-05-08 11:29:21</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:10</t>
+          <t>2025-05-08 11:44:21</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 10:34:10</t>
+          <t>2025-05-08 11:44:21</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:27</t>
+          <t>2025-05-08 14:49:16</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>8398</v>
+        <v>13129</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,17 +1482,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1504,23 +1500,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39749</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.522544992175926</v>
+        <v>-1.617546948356481</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250894</v>
+        <v>250759</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1528,33 +1524,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>623.4084507042254</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:32:27</t>
+          <t>2025-05-08 14:49:16</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:49:27</t>
+          <t>2025-05-09 07:19:16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 12:49:27</t>
+          <t>2025-05-09 07:19:16</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-13 07:12:52</t>
+          <t>2025-05-09 09:17:32</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>44262</v>
+        <v>8398</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1563,73 +1559,75 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>76</v>
       </c>
       <c r="N15" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>39747</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>39747</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.3006064162731482</v>
+        <v>-1.387187010949074</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251651</v>
+        <v>250894</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7049180327868</v>
+        <v>623.4084507042254</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-05-09 09:17:32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 09:34:32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-05-09 09:34:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-05-12 11:57:57</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>46830</v>
+        <v>44262</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1658,7 +1656,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
@@ -1751,33 +1749,33 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>128.53125</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1816,7 +1814,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.3941189236111111</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S18" t="n">
         <v>7</v>
@@ -1824,41 +1822,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251455</v>
+        <v>251840</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>82.765625</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:27:31</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:42:31</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-07 09:42:31</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-07 11:05:17</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5297</v>
+        <v>5714</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1871,13 +1869,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1885,57 +1883,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39749</v>
+        <v>39758</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.46201171875</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251391</v>
+        <v>251229</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>91.640625</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:05:17</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:17</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:17</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-07 12:53:56</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5865</v>
+        <v>18739</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1944,17 +1942,19 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="n">
-        <v>39749</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39749</v>
+        <v>39723</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.5374565972222223</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251395</v>
+        <v>250923</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21" t="n">
-        <v>35.34375</v>
+        <v>98.67605633802818</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-07 12:53:56</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:10:56</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:10:56</t>
+          <t>2025-05-08 12:21:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-07 13:46:16</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2262</v>
+        <v>7006</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,14 +2021,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N21" t="n">
         <v>39749</v>
@@ -2043,53 +2043,53 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-07 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-0.5738064236111111</v>
+        <v>-1.583108372453704</v>
       </c>
       <c r="S21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251396</v>
+        <v>251227</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-07 13:46:16</t>
+          <t>2025-05-08 13:59:40</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:01:16</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:01:16</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-07 14:36:37</t>
+          <t>2025-05-08 14:16:40</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -2098,17 +2098,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N22" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,57 +2116,57 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39749</v>
+        <v>39746</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-0.6087673611111111</v>
+        <v>-2.594913928009259</v>
       </c>
       <c r="S22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>251548</v>
+        <v>251416</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>206.90625</v>
+        <v>229.0204081632653</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:36:37</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:55:37</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-07 14:55:37</t>
+          <t>2025-05-08 07:35:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-05-08 10:22:31</t>
+          <t>2025-05-08 11:24:01</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>13242</v>
+        <v>11222</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -2179,67 +2179,65 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>70</v>
       </c>
       <c r="N23" t="n">
-        <v>39749</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>39749</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R23" s="1" t="n">
-        <v>-1.432313368055556</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>251225</v>
+        <v>251050</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:22:31</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -2252,14 +2250,14 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M24" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N24" t="n">
         <v>39747</v>
@@ -2274,53 +2272,53 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R24" s="1" t="n">
-        <v>-0.4531467013888889</v>
+        <v>-1.442361111111111</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>250923</v>
+        <v>251054</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D25" t="n">
-        <v>109.46875</v>
+        <v>0</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-08 10:52:31</t>
+          <t>2025-05-09 10:37:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:09:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-08 11:09:31</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-05-08 12:59:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>7006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2329,17 +2327,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="M25" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2347,15 +2345,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>39749</v>
+        <v>39747</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-04-16 00:00:00</t>
         </is>
       </c>
       <c r="R25" s="1" t="n">
-        <v>-1.540972222222222</v>
+        <v>-1.466666666666667</v>
       </c>
       <c r="S25" t="n">
         <v>2</v>
@@ -2363,41 +2361,41 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>251477</v>
+        <v>251081</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="D26" t="n">
-        <v>468.734375</v>
+        <v>42.42253521126761</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-08 12:59:00</t>
+          <t>2025-05-09 11:12:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:18:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-08 13:18:00</t>
+          <t>2025-05-09 13:17:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-05-09 13:06:44</t>
+          <t>2025-05-09 13:59:25</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>29999</v>
+        <v>3012</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -2406,17 +2404,19 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M26" t="n">
-        <v>76</v>
-      </c>
-      <c r="N26" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2424,18 +2424,18 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>39760</v>
+        <v>39750</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R26" s="1" t="n">
-        <v>-2.546343315972222</v>
+        <v>-16.58293231612268</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251164</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>156.25</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:23:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>10000</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
         <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.4161458333333333</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251371</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 09:59:15</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,18 +635,18 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39891 (esterno)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -655,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39666</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-13.42934027777778</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251391</v>
+        <v>251218</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>91.640625</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:18:15</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:35:15</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:35:15</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 12:06:53</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>5865</v>
+        <v>6880</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,57 +732,57 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.50478515625</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251395</v>
+        <v>251752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>35.34375</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:06:53</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:53</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:23:53</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 12:59:14</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2262</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N5" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5411349826388889</v>
+        <v>-0.5978482003125</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251500</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:59:14</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:14:14</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:14:14</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 13:49:34</t>
+          <t>2025-06-05 09:12:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>9896</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
         <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5760959201388889</v>
+        <v>-0.3835289514814815</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 13:49:34</t>
+          <t>2025-06-05 09:12:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:08:34</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 14:08:34</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:29</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
         <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.399641927083333</v>
+        <v>-0.5194640062615741</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251477</v>
+        <v>251180</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="D8" t="n">
-        <v>468.734375</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 09:35:29</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:29</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:07:29</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-09 09:56:13</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>29999</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1022,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39760</v>
+        <v>39887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-2.414040798611111</v>
+        <v>-16.31423611111111</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251782</v>
+        <v>251070</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>34.5</v>
       </c>
       <c r="D9" t="n">
-        <v>188.640625</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-09 09:56:13</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:11:13</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:11:13</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 13:19:51</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12073</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N9" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,57 +1119,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.5554578993055556</v>
+        <v>-0.3381944444444445</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251773</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1178,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>39874</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.3607638888888889</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251225</v>
+        <v>251895</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>36.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>321.7090909090909</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 09:16:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 09:16:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 14:37:42</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,75 +1255,77 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>39891</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>2025-05-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>-10.60952020202546</v>
+      </c>
+      <c r="S11" t="n">
         <v>4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>76</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P11" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2025-04-30 00:00:00</t>
-        </is>
-      </c>
-      <c r="R11" s="1" t="n">
-        <v>-0.3048611111111111</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251456</v>
+        <v>251780</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>44.5</v>
       </c>
       <c r="D12" t="n">
-        <v>126.7464788732394</v>
+        <v>441.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:19:00</t>
+          <t>2025-06-05 14:37:42</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:51:00</t>
+          <t>2025-06-06 07:22:12</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 07:51:00</t>
+          <t>2025-06-06 07:22:12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 09:57:44</t>
+          <t>2025-06-06 14:44:00</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8999</v>
+        <v>24299</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1337,8 +1343,10 @@
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39746</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,57 +1354,57 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39746</v>
+        <v>39887</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-2.415101721435185</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251455</v>
+        <v>252112</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>74.6056338028169</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 09:57:44</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:44</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 10:14:44</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:21</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>5297</v>
+        <v>12453</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1409,13 +1417,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
       <c r="N13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1423,57 +1431,57 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-1.478716744918982</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251547</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>184.9154929577465</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:29:21</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:21</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-08 11:44:21</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:16</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>13129</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1486,13 +1494,13 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1500,57 +1508,57 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.617546948356481</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>250759</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>118.2816901408451</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 14:49:16</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:19:16</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-09 07:19:16</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:32</t>
+          <t>2025-06-05 10:12:21</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8398</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1559,17 +1567,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1577,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.387187010949074</v>
+        <v>-0.4252504553703704</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1593,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>250894</v>
+        <v>251362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>623.4084507042254</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:17:32</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:34:32</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-09 09:34:32</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-12 11:57:57</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>44262</v>
+        <v>2505</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1636,73 +1644,75 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>39874</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>0</v>
+        <v>-0.3279733959259259</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251284</v>
+        <v>251631</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40.5</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
-        <v>297.0909090909091</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>16340</v>
+        <v>10370</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,17 +1721,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1729,57 +1739,57 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.4398180751157408</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251742</v>
+        <v>251237</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>134.8524590163935</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-06 12:34:41</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>8226</v>
+        <v>40140</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1788,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1806,57 +1816,57 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-1.524090375590278</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251840</v>
+        <v>252084</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>93.67213114754098</v>
+        <v>797.9795918367347</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-04 07:40:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 12:57:58</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5714</v>
+        <v>39101</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1869,13 +1879,13 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
         <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1883,57 +1893,57 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39758</v>
+        <v>39885</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-0.5402636054398148</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251229</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>307.1967213114754</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>18739</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1942,19 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
         <v>70</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+      <c r="N20" t="n">
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>0</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250923</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>98.67605633802818</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 12:21:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7006</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,53 +2047,53 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.583108372453704</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251227</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 13:59:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-08 14:16:40</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -2093,22 +2101,22 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,405 +2124,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-2.594913928009259</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>35</v>
-      </c>
-      <c r="D23" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:00:00</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-08 07:35:00</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-08 11:24:01</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
         <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251050</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>217</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>38</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>125</v>
-      </c>
-      <c r="D26" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:59:25</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251218</v>
+        <v>251362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>96.90140845070422</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6880</v>
+        <v>2505</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,23 +732,23 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,23 +811,23 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5978482003125</v>
+        <v>-10.40659233177083</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251500</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +835,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>139.3802816901408</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:12:16</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9896</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,14 +870,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
         <v>39885</v>
@@ -890,19 +892,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.3835289514814815</v>
+        <v>-0.5002738654166667</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251565</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>176.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:12:16</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,15 +965,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5194640062615741</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -979,41 +981,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251180</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,15 +1028,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-16.31423611111111</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251070</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,17 +1101,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39885</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1119,23 +1121,23 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3381944444444445</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251773</v>
+        <v>251070</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1143,29 +1145,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1178,17 +1180,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1196,23 +1198,23 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3607638888888889</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251895</v>
+        <v>251500</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1220,33 +1222,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>321.7090909090909</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:00</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:00</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:42</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>17694</v>
+        <v>9896</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1259,15 +1261,13 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N11" t="n">
+        <v>39885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -1283,15 +1283,15 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-10.60952020202546</v>
+        <v>-0.4659217171759259</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251780</v>
+        <v>251773</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1299,33 +1299,33 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>44.5</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>441.8</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:42</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:22:12</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-06 07:22:12</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-06 14:44:00</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>24299</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,19 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39874</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1354,23 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39887</v>
+        <v>39874</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>0</v>
+        <v>-0.4912689393981481</v>
       </c>
       <c r="S12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252112</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1378,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1475409836065</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1390,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1417,13 +1415,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39885</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1455,33 +1455,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4451388888888889</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:12:21</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4252504553703704</v>
+        <v>-0.5006147540972222</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251362</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>35.28169014084507</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-06 10:09:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2505</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,14 +1644,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>39874</v>
@@ -1666,14 +1666,14 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3279733959259259</v>
+        <v>-1.423064663020833</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4398180751157408</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 12:34:41</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.524090375590278</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252084</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>797.9795918367347</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:57:58</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>39101</v>
+        <v>12453</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5402636054398148</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251895</v>
+        <v>251218</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>249.2112676056338</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:36:16</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:36:16</t>
+          <t>2025-06-04 13:13:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-05 09:45:29</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17694</v>
+        <v>6880</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,19 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39885</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -811,23 +809,23 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39891</v>
+        <v>39885</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-10.40659233177083</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251218</v>
+        <v>251780</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -835,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90140845070422</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:45:29</t>
+          <t>2025-06-04 14:50:10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:23:29</t>
+          <t>2025-06-05 07:26:10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:23:29</t>
+          <t>2025-06-05 07:26:10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:23</t>
+          <t>2025-06-05 13:08:25</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>24299</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,17 +868,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5002738654166667</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:23</t>
+          <t>2025-06-05 13:08:25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 13:37:25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 13:37:25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-06 09:46:38</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +947,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
-      </c>
-      <c r="N7" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,23 +967,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-11.40738458528935</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>251180</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,33 +991,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-06 09:46:38</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-06-06 10:13:38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-06-06 10:13:38</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-06-06 10:13:38</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,13 +1030,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39885</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1046,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.326486697962963</v>
+        <v>-17.42613458528935</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>252282</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>34.5</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>49.78181818181818</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-06-05 07:34:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-06-05 07:34:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:49:22</t>
+          <t>2025-06-05 08:24:16</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>2738</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1105,15 +1109,13 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N9" t="n">
+        <v>39885</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,18 +1123,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-0.3501957070717593</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1145,29 +1147,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>32.5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 08:24:16</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 08:56:46</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 08:56:46</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 08:56:46</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1206,7 +1208,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-0.3727651515162037</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1229,22 +1231,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 08:56:46</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:11:00</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:11:00</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:55</t>
+          <t>2025-06-05 12:31:12</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1283,7 +1285,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4659217171759259</v>
+        <v>-0.5216729798032408</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
@@ -1306,22 +1308,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:55</t>
+          <t>2025-06-05 12:31:12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-06-05 13:07:42</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-06-05 13:07:42</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-06-05 13:07:42</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1360,7 +1362,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4912689393981481</v>
+        <v>-0.547020202025463</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1368,7 +1370,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251180</v>
+        <v>251565</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1376,10 +1378,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>205.7213114754098</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1388,21 +1390,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,15 +1417,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N13" t="n">
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1431,18 +1431,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-15.3125</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1455,29 +1455,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
         <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 10:45:43</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:00:00</t>
+          <t>2025-06-04 11:05:43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:00:00</t>
+          <t>2025-06-04 11:05:43</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:41:00</t>
+          <t>2025-06-05 13:46:43</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4451388888888889</v>
+        <v>-0.5741120218634259</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:41:00</t>
+          <t>2025-06-05 13:46:43</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:16:00</t>
+          <t>2025-06-05 14:11:43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:16:00</t>
+          <t>2025-06-05 14:11:43</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:53</t>
+          <t>2025-06-06 11:50:02</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5006147540972222</v>
+        <v>-1.493089708564815</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251984</v>
+        <v>251752</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>338.327868852459</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:53</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:30:53</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:30:53</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 10:09:12</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20638</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,17 +1644,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39846</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.423064663020833</v>
+        <v>-1.303472222222222</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 07:32:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.415316901412037</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 09:58:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:34:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 10:34:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-06-06 11:59:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-1.499589201875</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -748,7 +748,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251218</v>
+        <v>251895</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90140845070422</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -768,21 +768,21 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:13:16</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>6880</v>
+        <v>17694</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,23 +811,23 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39885</v>
+        <v>39891</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>0</v>
+        <v>-10.40659233177083</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251780</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +835,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>342.2394366197183</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:50:10</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:26:10</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 07:26:10</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 13:08:25</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>24299</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,19 +870,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N6" t="n">
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,23 +888,23 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>0</v>
+        <v>-0.5002738654166667</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251895</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 13:08:25</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 13:37:25</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 13:37:25</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-06 09:46:38</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,19 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N7" t="n">
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -967,23 +965,23 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39891</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-11.40738458528935</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251180</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -991,33 +989,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-06 09:46:38</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-06 10:13:38</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-06 10:13:38</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 10:13:38</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1030,15 +1028,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1046,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-17.42613458528935</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>252282</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>34.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>49.78181818181818</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:34:30</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:34:30</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 08:24:16</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2738</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1109,13 +1105,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
       </c>
-      <c r="N9" t="n">
-        <v>39885</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1123,18 +1121,18 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-0.3501957070717593</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1147,29 +1145,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>32.5</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:24:16</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:56:46</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:56:46</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:56:46</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1208,7 +1206,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3727651515162037</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1231,22 +1229,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:56:46</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 12:31:12</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1285,7 +1283,7 @@
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.5216729798032408</v>
+        <v>-0.4659217171759259</v>
       </c>
       <c r="S11" t="n">
         <v>2</v>
@@ -1308,22 +1306,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 12:31:12</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 13:07:42</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 13:07:42</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 13:07:42</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1362,7 +1360,7 @@
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.547020202025463</v>
+        <v>-0.4912689393981481</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1370,7 +1368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251565</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1378,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>205.7213114754098</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1390,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1417,13 +1415,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39885</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1431,18 +1431,18 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1455,29 +1455,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
         <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 10:45:43</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:05:43</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:05:43</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:43</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.5741120218634259</v>
+        <v>-0.4451388888888889</v>
       </c>
       <c r="S14" t="n">
         <v>7</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 13:46:43</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 14:11:43</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 14:11:43</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-06 11:50:02</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.493089708564815</v>
+        <v>-0.5006147540972222</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251752</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-06 10:09:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,17 +1644,17 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39846</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.303472222222222</v>
+        <v>-1.423064663020833</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>2025-06-05 07:00:00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2025-06-05 07:17:00</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:32:00</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:00</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:58:03</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.415316901412037</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:58:03</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:34:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:34:03</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:59:24</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.499589201875</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251362</v>
+        <v>251218</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28169014084507</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-06-04 12:23:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2505</v>
+        <v>6880</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,23 +732,23 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251895</v>
+        <v>251752</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-06-04 13:59:54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:36:16</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:36:16</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-05 09:45:29</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,19 +791,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N5" t="n">
+        <v>39846</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -811,23 +809,23 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39891</v>
+        <v>39846</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-10.40659233177083</v>
+        <v>-0.5978482003125</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251218</v>
+        <v>251500</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -835,33 +833,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90140845070422</v>
+        <v>139.3802816901408</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:45:29</t>
+          <t>2025-06-04 14:20:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:23:29</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:23:29</t>
+          <t>2025-06-04 14:52:54</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:23</t>
+          <t>2025-06-05 09:12:16</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>9896</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,14 +868,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
         <v>39885</v>
@@ -892,19 +890,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5002738654166667</v>
+        <v>-0.3835289514814815</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251565</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -912,33 +910,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:23</t>
+          <t>2025-06-05 09:12:16</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 09:31:16</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>12549</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,15 +963,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39885</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-0.5194640062615741</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -981,7 +979,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>251780</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -989,33 +987,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-06-05 12:28:01</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-06-05 12:45:01</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-06-05 12:45:01</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-06-06 10:27:16</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>24299</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1028,13 +1026,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="n">
-        <v>39885</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.326486697962963</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>251180</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>32.5</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:49:22</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1125,11 +1125,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-16.31423611111111</v>
       </c>
       <c r="S9" t="n">
         <v>7</v>
@@ -1145,29 +1145,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>34.5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 07:32:30</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>-0.3381944444444445</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251500</v>
+        <v>251773</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1222,33 +1222,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>32.5</v>
       </c>
       <c r="D11" t="n">
-        <v>179.9272727272727</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-06-05 08:07:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:11:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:11:00</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:55</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>9896</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,23 +1275,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4659217171759259</v>
+        <v>-0.3607638888888889</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251773</v>
+        <v>251895</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1302,30 +1302,30 @@
         <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>321.7090909090909</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:55</t>
+          <t>2025-06-05 08:39:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-06-05 09:16:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-06-05 09:16:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-06-05 14:37:42</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1334,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="n">
-        <v>39874</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,23 +1354,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39874</v>
+        <v>39891</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4912689393981481</v>
+        <v>-10.60952020202546</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251180</v>
+        <v>252112</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1376,10 +1378,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>204.1475409836065</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1388,21 +1390,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 07:20:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12453</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1415,15 +1417,13 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N13" t="n">
+        <v>39885</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>-15.3125</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252084</v>
+        <v>252282</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1455,33 +1455,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D14" t="n">
-        <v>641</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-06-04 10:44:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:00:00</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:00:00</t>
+          <t>2025-06-04 11:19:08</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:41:00</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>39101</v>
+        <v>2738</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4451388888888889</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>251984</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:41:00</t>
+          <t>2025-06-04 12:04:01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:16:00</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:16:00</t>
+          <t>2025-06-04 12:34:01</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:53</t>
+          <t>2025-06-05 10:12:21</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>20638</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5006147540972222</v>
+        <v>-0.4252504553703704</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251984</v>
+        <v>251362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
-        <v>338.327868852459</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:53</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:30:53</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:30:53</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 10:09:12</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20638</v>
+        <v>2505</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,14 +1644,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N16" t="n">
         <v>39874</v>
@@ -1666,14 +1666,14 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.423064663020833</v>
+        <v>-0.3279733959259259</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 07:52:16</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 08:07:16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>-0.4398180751157408</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-06-05 10:33:20</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-06-05 11:09:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-06-06 12:34:41</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-1.524090375590278</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252112</v>
+        <v>252084</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>254.1428571428571</v>
+        <v>797.9795918367347</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-06-05 12:57:58</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12453</v>
+        <v>39101</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-0.5402636054398148</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -671,7 +671,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251218</v>
+        <v>251362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>96.90140845070422</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -691,21 +691,21 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:23:00</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6880</v>
+        <v>2505</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,23 +732,23 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39885</v>
+        <v>39874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251752</v>
+        <v>251895</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -756,33 +756,33 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:59:54</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,17 +791,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>76</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39846</v>
+        <v>70</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -809,23 +811,23 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39846</v>
+        <v>39891</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-0.5978482003125</v>
+        <v>-10.40659233177083</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251500</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,33 +835,33 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>139.3802816901408</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:20:54</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-04 14:52:54</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:12:16</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9896</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,14 +870,14 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
         <v>39885</v>
@@ -890,19 +892,19 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.3835289514814815</v>
+        <v>-0.5002738654166667</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251565</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -910,33 +912,33 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>176.7464788732394</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:12:16</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 09:31:16</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>12549</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,15 +965,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39885</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-0.5194640062615741</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -979,7 +981,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251780</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -987,33 +989,33 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>342.2394366197183</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:28:01</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:45:01</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:45:01</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 10:27:16</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>24299</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1026,15 +1028,13 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>70</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+      <c r="N8" t="n">
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1042,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39887</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>0</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251180</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32.5</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>70</v>
@@ -1125,11 +1125,11 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-16.31423611111111</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>7</v>
@@ -1145,29 +1145,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-06-05 07:32:30</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3381944444444445</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
         <v>2</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251773</v>
+        <v>251500</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1222,33 +1222,33 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.5</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>9896</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,17 +1257,17 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,23 +1275,23 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.3607638888888889</v>
+        <v>-0.4659217171759259</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251895</v>
+        <v>251773</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1302,30 +1302,30 @@
         <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>321.7090909090909</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 08:39:30</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:00</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 09:16:00</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 14:37:42</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,19 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
         <v>70</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N12" t="n">
+        <v>39874</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1354,23 +1352,23 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39891</v>
+        <v>39874</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-10.60952020202546</v>
+        <v>-0.4912689393981481</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>252112</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1378,10 +1376,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>204.1475409836065</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1390,21 +1388,21 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-06-04 07:20:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1417,13 +1415,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>70</v>
       </c>
-      <c r="N13" t="n">
-        <v>39885</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1431,23 +1431,23 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>39885</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252282</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1455,33 +1455,33 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>44.88524590163934</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 10:44:08</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 11:19:08</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2738</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>0</v>
+        <v>-0.4451388888888889</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251984</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>338.327868852459</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:04:01</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-04 12:34:01</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:12:21</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>20638</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,15 +1585,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39874</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.4252504553703704</v>
+        <v>-0.5006147540972222</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
@@ -1601,41 +1601,41 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251362</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>35.28169014084507</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-06 10:09:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>2505</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1644,14 +1644,14 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N16" t="n">
         <v>39874</v>
@@ -1666,14 +1666,14 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.3279733959259259</v>
+        <v>-1.423064663020833</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1686,29 +1686,29 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
         <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:52:16</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 08:07:16</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4398180751157408</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
         <v>2</v>
@@ -1770,22 +1770,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:33:20</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 11:09:20</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 12:34:41</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.524090375590278</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252084</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>40</v>
       </c>
       <c r="D19" t="n">
-        <v>797.9795918367347</v>
+        <v>254.1428571428571</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-05 12:57:58</t>
+          <t>2025-06-04 11:54:08</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>39101</v>
+        <v>12453</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-06-06 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>-0.5402636054398148</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251219</v>
+        <v>251455</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>107.5</v>
+        <v>82.765625</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:00</t>
+          <t>2025-05-07 07:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-06-05 12:36:00</t>
+          <t>2025-05-07 07:19:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-06-05 14:23:30</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6880</v>
+        <v>5297</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.5996527777777778</v>
+        <v>-0.3623372395833334</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251897</v>
+        <v>251391</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0327868852459</v>
+        <v>91.640625</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-07 08:41:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-06-05 07:54:00</t>
+          <t>2025-05-07 08:58:45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-06-05 12:59:01</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>18607</v>
+        <v>5865</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,19 +635,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>39891 (esterno)</t>
-        </is>
+      <c r="N3" t="n">
+        <v>39749</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -655,57 +653,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39891</v>
+        <v>39749</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-10.54099499089121</v>
+        <v>-0.4377821180555556</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251362</v>
+        <v>251395</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>35.28169014084507</v>
+        <v>35.34375</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:00:00</t>
+          <t>2025-05-07 10:30:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:17:00</t>
+          <t>2025-05-07 10:47:24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2505</v>
+        <v>2262</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -714,17 +712,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -732,15 +730,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39874</v>
+        <v>39749</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-04-23 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>-0.4741319444444445</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -748,41 +746,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251895</v>
+        <v>251371</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>249.2112676056338</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-06-04 12:52:16</t>
+          <t>2025-05-07 11:22:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:36:16</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-06-04 13:36:16</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-05 09:45:29</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>17694</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -791,18 +789,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>39891 (esterno)</t>
+          <t>39666 (esterno)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -811,57 +809,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39891</v>
+        <v>39666</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-10.40659233177083</v>
+        <v>-13.48732638888889</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251218</v>
+        <v>251396</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>96.90140845070422</v>
+        <v>35.34375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-06-05 09:45:29</t>
+          <t>2025-05-07 11:41:45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:23:29</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-06-05 10:23:29</t>
+          <t>2025-05-07 12:00:45</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:23</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>6880</v>
+        <v>2262</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -870,17 +868,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -888,57 +886,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-02 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5002738654166667</v>
+        <v>-0.5250651041666666</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251752</v>
+        <v>251548</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>206.90625</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:23</t>
+          <t>2025-05-07 12:36:05</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-07 12:55:05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13242</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -947,17 +945,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N7" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -965,57 +963,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39846</v>
+        <v>39749</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-20 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.51485719875</v>
+        <v>-1.348611111111111</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>251565</v>
+        <v>250923</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>176.7464788732394</v>
+        <v>109.46875</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:21:23</t>
+          <t>2025-05-08 08:22:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-06-05 12:53:23</t>
+          <t>2025-05-08 08:54:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>12549</v>
+        <v>7006</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1024,75 +1022,75 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>76</v>
+      </c>
+      <c r="N8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>2025-04-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>-1.446853298611111</v>
+      </c>
+      <c r="S8" t="n">
         <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>70</v>
-      </c>
-      <c r="N8" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2025-06-10 00:00:00</t>
-        </is>
-      </c>
-      <c r="R8" s="1" t="n">
-        <v>-1.326486697962963</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251780</v>
+        <v>251477</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>BIMEC 2</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
-        <v>342.2394366197183</v>
+        <v>468.734375</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-06-06 07:50:08</t>
+          <t>2025-05-08 10:43:28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-06-06 08:07:08</t>
+          <t>2025-05-08 11:02:28</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-06-06 13:49:22</t>
+          <t>2025-05-09 10:51:12</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>24299</v>
+        <v>29999</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1101,19 +1099,17 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N9" t="n">
+        <v>39760</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1121,134 +1117,132 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39887</v>
+        <v>39760</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-06-18 00:00:00</t>
+          <t>2025-04-28 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>-2.452224392361111</v>
       </c>
       <c r="S9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251070</v>
+        <v>251651</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.5</v>
+        <v>29</v>
       </c>
       <c r="D10" t="n">
+        <v>767.7049180327868</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:29:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-05-12 12:16:42</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>46830</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:36:30</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>70</v>
-      </c>
-      <c r="N10" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P10" t="n">
-        <v>39885</v>
-      </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-03-28 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>-0.3170138888888889</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251500</v>
+        <v>251547</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
-        <v>179.9272727272727</v>
+        <v>184.9154929577465</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-06-05 07:36:30</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:11:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-06-05 08:11:00</t>
+          <t>2025-05-08 07:34:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:55</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>9896</v>
+        <v>13129</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1257,7 +1251,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1267,7 +1261,7 @@
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1275,57 +1269,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-26 00:00:00</t>
+          <t>2025-05-06 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-0.4659217171759259</v>
+        <v>-1.443691314548611</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>251773</v>
+        <v>250759</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>36.5</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>118.2816901408451</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:10:55</t>
+          <t>2025-05-08 10:38:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 11:08:54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-06-05 11:47:25</t>
+          <t>2025-05-08 13:07:11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8398</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1334,17 +1328,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N12" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1352,15 +1346,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39874</v>
+        <v>39747</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-05-25 00:00:00</t>
+          <t>2025-03-13 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.4912689393981481</v>
+        <v>-0.5466647104861111</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1368,120 +1362,116 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>251180</v>
+        <v>250894</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
+        <v>623.4084507042254</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:07:11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-08 13:24:11</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:47:36</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>44262</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>76</v>
+      </c>
+      <c r="N13" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:00:00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-06-04 07:30:00</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="P13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>2025-05-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>70</v>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>39887 (esterno)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P13" t="n">
-        <v>39887</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2025-05-20 00:00:00</t>
-        </is>
-      </c>
-      <c r="R13" s="1" t="n">
-        <v>-15.3125</v>
-      </c>
-      <c r="S13" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>252084</v>
+        <v>251284</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>40.5</v>
       </c>
       <c r="D14" t="n">
-        <v>641</v>
+        <v>297.0909090909091</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-06-04 07:30:00</t>
+          <t>2025-05-09 07:00:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-06-04 08:00:00</t>
+          <t>2025-05-09 07:40:30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-06-05 10:41:00</t>
+          <t>2025-05-09 12:37:35</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>39101</v>
+        <v>16340</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1490,17 +1480,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1508,23 +1498,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-06-30 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-0.4451388888888889</v>
+        <v>-1.526104797974537</v>
       </c>
       <c r="S14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>252282</v>
+        <v>251742</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1532,33 +1522,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>44.88524590163934</v>
+        <v>134.8524590163935</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-06-05 10:41:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:16:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-06-05 11:16:00</t>
+          <t>2025-05-08 07:30:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:53</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2738</v>
+        <v>8226</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1571,13 +1561,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1585,23 +1575,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39885</v>
+        <v>39749</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-06-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-0.5006147540972222</v>
+        <v>-1.406147540983796</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251984</v>
+        <v>251840</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1609,33 +1599,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>338.327868852459</v>
+        <v>93.67213114754098</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:00:53</t>
+          <t>2025-05-08 09:44:51</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:30:53</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-06-05 12:30:53</t>
+          <t>2025-05-08 10:09:51</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-06-06 10:09:12</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>20638</v>
+        <v>5714</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1648,13 +1638,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39874</v>
+        <v>39758</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1662,15 +1652,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39874</v>
+        <v>39758</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-06-10 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1.423064663020833</v>
+        <v>-0.4885587431712963</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1678,41 +1668,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251631</v>
+        <v>251229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>146.056338028169</v>
+        <v>307.1967213114754</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 11:43:31</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-06-05 07:17:00</t>
+          <t>2025-05-08 12:08:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-09 09:15:43</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>10370</v>
+        <v>18739</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1721,17 +1711,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>76</v>
-      </c>
-      <c r="N17" t="n">
-        <v>39885</v>
+        <v>70</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>39723 (esterno)</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1739,23 +1731,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39885</v>
+        <v>39723</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-15 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-0.4049002347453703</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251237</v>
+        <v>251225</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1763,33 +1755,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D18" t="n">
-        <v>565.3521126760563</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-06-05 09:43:03</t>
+          <t>2025-05-08 12:00:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-06-05 10:19:03</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-06-06 11:44:24</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>40140</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1798,17 +1790,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="N18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1816,15 +1808,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39885</v>
+        <v>39747</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-04-30 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1.489172535208333</v>
+        <v>-0.5131944444444444</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1832,41 +1824,41 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>252112</v>
+        <v>251227</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D19" t="n">
-        <v>254.1428571428571</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:00:00</t>
+          <t>2025-05-08 12:19:00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-06-04 07:40:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-06-04 11:54:08</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12453</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1875,17 +1867,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1893,15 +1885,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>39885</v>
+        <v>39746</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>2025-06-06 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R19" s="1" t="n">
-        <v>0</v>
+        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1909,41 +1901,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251655</v>
+        <v>251782</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R6</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.211267605634</v>
+        <v>170.0422535211268</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:00:00</t>
+          <t>2025-05-08 12:34:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-06-05 07:40:00</t>
+          <t>2025-05-08 12:51:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-06-10 10:37:12</t>
+          <t>2025-05-09 07:41:02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>114822</v>
+        <v>12073</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1952,17 +1944,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1970,57 +1962,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39885</v>
+        <v>39754</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-16 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-5.442507824722222</v>
+        <v>-0.3201682316087963</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251573</v>
+        <v>251164</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R9</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
-        <v>89.89855072463769</v>
+        <v>204.0816326530612</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:00:00</t>
+          <t>2025-05-08 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-06-06 07:35:00</t>
+          <t>2025-05-08 07:55:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-06-06 09:04:53</t>
+          <t>2025-05-08 11:19:04</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6203</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2029,113 +2021,500 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>70</v>
+      </c>
+      <c r="N21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>39749</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-04-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>-1.471584467118056</v>
+      </c>
+      <c r="S21" t="n">
         <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
-      <c r="N21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>2025-05-26 00:00:00</t>
-        </is>
-      </c>
-      <c r="R21" s="1" t="n">
-        <v>-1.378401771331018</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251082</v>
+        <v>251456</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>50</v>
+      </c>
+      <c r="D22" t="n">
+        <v>183.6530612244898</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2025-05-08 11:19:04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-08 12:09:04</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>8999</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>70</v>
+      </c>
+      <c r="N22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>39746</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>2025-05-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>-3.300510204085648</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>251416</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>R3</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" t="n">
+        <v>229.0204081632653</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:12:44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:52:44</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:41:45</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>11222</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>70</v>
+      </c>
+      <c r="N23" t="n">
+        <v>39755</v>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="D22" t="n">
+      <c r="P23" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-06-05 07:00:00</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>251050</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>217</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2025-05-09 07:00:00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>70</v>
+      </c>
+      <c r="N24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>-1.442361111111111</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>251054</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>35</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-05-09 10:37:00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" t="n">
+        <v>70</v>
+      </c>
+      <c r="N25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>39747</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>2025-04-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>-1.466666666666667</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>251081</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42.42253521126761</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-05-09 11:12:00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:17:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-05-09 13:59:25</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3012</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>R6</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>20</v>
+      </c>
+      <c r="M26" t="n">
+        <v>70</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>39750 (esterno)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>39750</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>2025-04-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>-16.58293231612268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>251706</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50.79365079365079</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-05-12 07:50:47</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>foglio</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>T1 ;T2 ;T8</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>39764 (esterno)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="P22" t="n">
-        <v>39885</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>2025-05-12 00:00:00</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="n">
-        <v>-0.2916666666666667</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2</v>
+      <c r="P27" t="n">
+        <v>39764</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2025-05-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PS-VRP/Dati_output/insert_inter.xlsx
+++ b/PS-VRP/Dati_output/insert_inter.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>251455</v>
+        <v>251219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -523,33 +523,33 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>82.765625</v>
+        <v>107.5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:00:00</t>
+          <t>2025-06-05 12:00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-05-07 07:19:00</t>
+          <t>2025-06-05 12:36:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-06-05 14:23:30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>5297</v>
+        <v>6880</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -558,17 +558,17 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -576,57 +576,57 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>2025-04-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R2" s="1" t="n">
-        <v>-0.3623372395833334</v>
+        <v>-0.5996527777777778</v>
       </c>
       <c r="S2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>251391</v>
+        <v>251897</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>91.640625</v>
+        <v>305.0327868852459</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:41:45</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-05-07 08:58:45</t>
+          <t>2025-06-05 07:54:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-06-05 12:59:01</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>5865</v>
+        <v>18607</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -635,17 +635,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
         <v>70</v>
       </c>
-      <c r="N3" t="n">
-        <v>39749</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>39891 (esterno)</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -653,57 +655,57 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>39749</v>
+        <v>39891</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-0.4377821180555556</v>
+        <v>-10.54099499089121</v>
       </c>
       <c r="S3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>251395</v>
+        <v>251362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>35.34375</v>
+        <v>35.28169014084507</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:30:24</t>
+          <t>2025-06-04 12:00:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-05-07 10:47:24</t>
+          <t>2025-06-04 12:17:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2262</v>
+        <v>2505</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -712,17 +714,17 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N4" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -730,15 +732,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>39749</v>
+        <v>39874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2025-04-23 00:00:00</t>
+          <t>2025-04-24 00:00:00</t>
         </is>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-0.4741319444444445</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>7</v>
@@ -746,41 +748,41 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>251371</v>
+        <v>251895</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>249.2112676056338</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:22:45</t>
+          <t>2025-06-04 12:52:16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-04 13:36:16</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>17694</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -789,18 +791,18 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
         <v>70</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>39666 (esterno)</t>
+          <t>39891 (esterno)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -809,57 +811,57 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>39666</v>
+        <v>39891</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2025-04-24 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>-13.48732638888889</v>
+        <v>-10.40659233177083</v>
       </c>
       <c r="S5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>251396</v>
+        <v>251218</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>35.34375</v>
+        <v>96.90140845070422</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-05-07 11:41:45</t>
+          <t>2025-06-05 09:45:29</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:00:45</t>
+          <t>2025-06-05 10:23:29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2262</v>
+        <v>6880</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -868,17 +870,17 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -886,57 +888,57 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2025-05-02 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>-0.5250651041666666</v>
+        <v>-0.5002738654166667</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>251548</v>
+        <v>251752</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>206.90625</v>
+        <v>0</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:36:05</t>
+          <t>2025-06-05 12:00:23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-05-07 12:55:05</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13242</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -945,17 +947,17 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N7" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -963,57 +965,57 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>39749</v>
+        <v>39846</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R7" s="1" t="n">
-        <v>-1.348611111111111</v>
+        <v>-1.51485719875</v>
       </c>
       <c r="S7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>250923</v>
+        <v>251565</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>109.46875</v>
+        <v>176.7464788732394</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:22:00</t>
+          <t>2025-06-05 12:21:23</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-05-08 08:54:00</t>
+          <t>2025-06-05 12:53:23</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>7006</v>
+        <v>12549</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1022,17 +1024,17 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1040,57 +1042,57 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>2025-04-07 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R8" s="1" t="n">
-        <v>-1.446853298611111</v>
+        <v>-1.326486697962963</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>251477</v>
+        <v>251780</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BIMEC 2</t>
+          <t>BIMEC 5</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>468.734375</v>
+        <v>342.2394366197183</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-05-08 10:43:28</t>
+          <t>2025-06-06 07:50:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-05-08 11:02:28</t>
+          <t>2025-06-06 08:07:08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-05-09 10:51:12</t>
+          <t>2025-06-06 13:49:22</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>29999</v>
+        <v>24299</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1099,17 +1101,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>76</v>
-      </c>
-      <c r="N9" t="n">
-        <v>39760</v>
+        <v>70</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1117,57 +1121,57 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>39760</v>
+        <v>39887</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>2025-04-28 00:00:00</t>
+          <t>2025-06-18 00:00:00</t>
         </is>
       </c>
       <c r="R9" s="1" t="n">
-        <v>-2.452224392361111</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>251651</v>
+        <v>251070</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BIMEC 4</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29</v>
+        <v>36.5</v>
       </c>
       <c r="D10" t="n">
-        <v>767.7049180327868</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-05-09 07:29:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-05-12 12:16:42</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>46830</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -1176,73 +1180,75 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N10" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>39885</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>39885</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-03-28 00:00:00</t>
         </is>
       </c>
       <c r="R10" s="1" t="n">
-        <v>0</v>
+        <v>-0.3170138888888889</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>251547</v>
+        <v>251500</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>34.5</v>
       </c>
       <c r="D11" t="n">
-        <v>184.9154929577465</v>
+        <v>179.9272727272727</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 07:36:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-05-08 07:34:00</t>
+          <t>2025-06-05 08:11:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13129</v>
+        <v>9896</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1251,7 +1257,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -1261,7 +1267,7 @@
         <v>70</v>
       </c>
       <c r="N11" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1269,57 +1275,57 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>2025-05-06 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R11" s="1" t="n">
-        <v>-1.443691314548611</v>
+        <v>-0.4659217171759259</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>250759</v>
+        <v>251773</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>CASON</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>36.5</v>
       </c>
       <c r="D12" t="n">
-        <v>118.2816901408451</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-05-08 10:38:54</t>
+          <t>2025-06-05 11:10:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-05-08 11:08:54</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-05 11:47:25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>8398</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1328,17 +1334,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12</t>
+          <t>CASON ;R6</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N12" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1346,15 +1352,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>39747</v>
+        <v>39874</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2025-03-13 00:00:00</t>
+          <t>2025-05-25 00:00:00</t>
         </is>
       </c>
       <c r="R12" s="1" t="n">
-        <v>-0.5466647104861111</v>
+        <v>-0.4912689393981481</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1362,41 +1368,41 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>250894</v>
+        <v>251180</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BIMEC 5</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>623.4084507042254</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:07:11</t>
+          <t>2025-06-04 07:00:00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-08 13:24:11</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-05-12 07:47:36</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>44262</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1405,73 +1411,77 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R3 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>76</v>
-      </c>
-      <c r="N13" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>39887 (esterno)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>39887</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2025-05-05 00:00:00</t>
+          <t>2025-05-20 00:00:00</t>
         </is>
       </c>
       <c r="R13" s="1" t="n">
-        <v>0</v>
+        <v>-15.3125</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>251284</v>
+        <v>252084</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CASON</t>
+          <t>R10</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.5</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>297.0909090909091</v>
+        <v>641</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:00:00</t>
+          <t>2025-06-04 07:30:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-09 07:40:30</t>
+          <t>2025-06-04 08:00:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-05-09 12:37:35</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>16340</v>
+        <v>39101</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1480,17 +1490,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>CASON ;R6</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>70</v>
       </c>
       <c r="N14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1498,23 +1508,23 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2025-05-12 00:00:00</t>
+          <t>2025-06-30 00:00:00</t>
         </is>
       </c>
       <c r="R14" s="1" t="n">
-        <v>-1.526104797974537</v>
+        <v>-0.4451388888888889</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>251742</v>
+        <v>252282</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1522,33 +1532,33 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" t="n">
-        <v>134.8524590163935</v>
+        <v>44.88524590163934</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-05 10:41:00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-08 07:30:00</t>
+          <t>2025-06-05 11:16:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>8226</v>
+        <v>2738</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1561,13 +1571,13 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
         <v>70</v>
       </c>
       <c r="N15" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1575,23 +1585,23 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-06-09 00:00:00</t>
         </is>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1.406147540983796</v>
+        <v>-0.5006147540972222</v>
       </c>
       <c r="S15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>251840</v>
+        <v>251984</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1599,33 +1609,33 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>93.67213114754098</v>
+        <v>338.327868852459</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-05-08 09:44:51</t>
+          <t>2025-06-05 12:00:53</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-08 10:09:51</t>
+          <t>2025-06-05 12:30:53</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-06 10:09:12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>5714</v>
+        <v>20638</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1638,13 +1648,13 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>70</v>
       </c>
       <c r="N16" t="n">
-        <v>39758</v>
+        <v>39874</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1652,15 +1662,15 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>39758</v>
+        <v>39874</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-06-10 00:00:00</t>
         </is>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-0.4885587431712963</v>
+        <v>-1.423064663020833</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1668,41 +1678,41 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>251229</v>
+        <v>251631</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R10</t>
+          <t>R12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D17" t="n">
-        <v>307.1967213114754</v>
+        <v>146.056338028169</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-05-08 11:43:31</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-08 12:08:31</t>
+          <t>2025-06-05 07:17:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-05-09 09:15:43</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>18739</v>
+        <v>10370</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1711,19 +1721,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>70</v>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>39723 (esterno)</t>
-        </is>
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>39885</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1731,23 +1739,23 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>39723</v>
+        <v>39885</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2025-05-15 00:00:00</t>
+          <t>2025-05-09 00:00:00</t>
         </is>
       </c>
       <c r="R17" s="1" t="n">
-        <v>0</v>
+        <v>-0.4049002347453703</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>251225</v>
+        <v>251237</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1755,33 +1763,33 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>565.3521126760563</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:00:00</t>
+          <t>2025-06-05 09:43:03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-05 10:19:03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-05-08 12:19:00</t>
+          <t>2025-06-06 11:44:24</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>40140</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1790,17 +1798,17 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="N18" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1808,15 +1816,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>39747</v>
+        <v>39885</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2025-04-30 00:00:00</t>
+          <t>2025-05-05 00:00:00</t>
         </is>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-0.5131944444444444</v>
+        <v>-1.489172535208333</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
@@ -1824,76 +1832,76 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>251227</v>
+        <v>252112</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D19" t="n">
+        <v>254.1428571428571</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:00:00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:40:00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-06-04 07:40:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-06-04 11:54:08</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>12453</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>bobina</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>70</v>
+      </c>
+      <c r="N19" t="n">
+        <v>39885</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>39885</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2025-06-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="R19" s="1" t="n">
         <v>0</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:19:00</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-05-08 12:34:00</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R9</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>76</v>
-      </c>
-      <c r="N19" t="n">
-        <v>39746</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>39746</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2025-05-05 00:00:00</t>
-        </is>
-      </c>
-      <c r="R19" s="1" t="n">
-        <v>-2.523611111111111</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -1901,41 +1909,41 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>251782</v>
+        <v>251655</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R12</t>
+          <t>R6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D20" t="n">
-        <v>170.0422535211268</v>
+        <v>1617.211267605634</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:34:00</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-08 12:51:00</t>
+          <t>2025-06-05 07:40:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-05-09 07:41:02</t>
+          <t>2025-06-10 10:37:12</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>12073</v>
+        <v>114822</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1944,17 +1952,17 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;R12 ;R6 ;R9</t>
+          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R6 ;R9</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1962,57 +1970,57 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>39754</v>
+        <v>39885</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>2025-05-16 00:00:00</t>
+          <t>2025-04-15 00:00:00</t>
         </is>
       </c>
       <c r="R20" s="1" t="n">
-        <v>-0.3201682316087963</v>
+        <v>-5.442507824722222</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>251164</v>
+        <v>251573</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R9</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D21" t="n">
-        <v>204.0816326530612</v>
+        <v>89.89855072463769</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:00:00</t>
+          <t>2025-06-06 07:00:00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-08 07:55:00</t>
+          <t>2025-06-06 07:35:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-06 09:04:53</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>6203</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2021,17 +2029,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>R12 ;R9</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2039,76 +2047,76 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>39749</v>
+        <v>39885</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2025-04-22 00:00:00</t>
+          <t>2025-05-26 00:00:00</t>
         </is>
       </c>
       <c r="R21" s="1" t="n">
-        <v>-1.471584467118056</v>
+        <v>-1.378401771331018</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>251456</v>
+        <v>251082</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>183.6530612244898</v>
+        <v>0</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-08 11:19:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-08 12:09:04</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-05-09 07:12:44</t>
+          <t>2025-06-05 07:00:00</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>8999</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>bobina</t>
+          <t>foglio</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
+          <t>T1 ;T2 ;T8</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2116,405 +2124,18 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>39746</v>
+        <v>39885</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>2025-05-09 00:00:00</t>
+          <t>2025-05-12 00:00:00</t>
         </is>
       </c>
       <c r="R22" s="1" t="n">
-        <v>-3.300510204085648</v>
+        <v>-0.2916666666666667</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>251416</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>R3</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" t="n">
-        <v>229.0204081632653</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:12:44</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:52:44</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:41:45</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>11222</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>BIMEC 2 ;BIMEC 4 ;BIMEC 5 ;CASON ;R10 ;R3 ;R6 ;R9</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
         <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>70</v>
-      </c>
-      <c r="N23" t="n">
-        <v>39755</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>251050</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>217</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2025-05-09 07:00:00</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>70</v>
-      </c>
-      <c r="N24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="n">
-        <v>-1.442361111111111</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>251054</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>35</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-05-09 10:37:00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>38</v>
-      </c>
-      <c r="M25" t="n">
-        <v>70</v>
-      </c>
-      <c r="N25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>39747</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>2025-04-16 00:00:00</t>
-        </is>
-      </c>
-      <c r="R25" s="1" t="n">
-        <v>-1.466666666666667</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>251081</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>125</v>
-      </c>
-      <c r="D26" t="n">
-        <v>42.42253521126761</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2025-05-09 11:12:00</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:17:00</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-05-09 13:59:25</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3012</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>bobina</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>R6</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>20</v>
-      </c>
-      <c r="M26" t="n">
-        <v>70</v>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>39750 (esterno)</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P26" t="n">
-        <v>39750</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>2025-04-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="n">
-        <v>-16.58293231612268</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>251706</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="n">
-        <v>50.79365079365079</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:00:00</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-05-12 07:50:47</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>foglio</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>T3</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>39764 (esterno)</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>39764</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>2025-05-14 00:00:00</t>
-        </is>
-      </c>
-      <c r="R27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
